--- a/Data/Diversity_PP.xlsx
+++ b/Data/Diversity_PP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\authoff\Documents\AWI\RProjects\HNT22\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54326A5-334C-4125-AE11-B5ABF9DE2D43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0575062C-53B0-41C6-8958-78D1489073DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,10 +58,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>Replicate</t>
+    <t>Incubation day</t>
   </si>
   <si>
-    <t>Incubation day</t>
+    <t>Replicate</t>
   </si>
 </sst>
 </file>
@@ -450,21 +450,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="D2:F193"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -487,13 +492,13 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="E2">
-        <v>0.54493684354040794</v>
+        <v>0.67810904196173516</v>
       </c>
       <c r="F2">
-        <v>2.968127870909417</v>
+        <v>3.5894378635053559</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -507,13 +512,13 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="E3">
-        <v>0.53614691295984718</v>
+        <v>0.59106369236841338</v>
       </c>
       <c r="F3">
-        <v>2.9062031064506439</v>
+        <v>3.1075146272005858</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -527,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="E4">
-        <v>0.57652223728668739</v>
+        <v>0.58436086151546951</v>
       </c>
       <c r="F4">
-        <v>3.1276043212468321</v>
+        <v>3.0813345648130022</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -547,13 +552,13 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="E5">
-        <v>0.60869008712110795</v>
+        <v>0.60883839833875197</v>
       </c>
       <c r="F5">
-        <v>3.3309169131073739</v>
+        <v>3.2288556661247299</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -567,13 +572,13 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E6">
-        <v>0.54123506059519932</v>
+        <v>0.56716519977000046</v>
       </c>
       <c r="F6">
-        <v>2.807595070954898</v>
+        <v>2.8027276118111151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -587,13 +592,13 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E7">
-        <v>0.54186515638777222</v>
+        <v>0.6278279543360481</v>
       </c>
       <c r="F7">
-        <v>2.8736761433774709</v>
+        <v>3.194135199636523</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -607,13 +612,13 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="E8">
-        <v>0.59892679679032523</v>
+        <v>0.64783291598629966</v>
       </c>
       <c r="F8">
-        <v>3.254401714237849</v>
+        <v>3.3854107058373288</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -627,13 +632,13 @@
         <v>11</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9">
-        <v>0.61727894012705264</v>
+        <v>0.64867871559055168</v>
       </c>
       <c r="F9">
-        <v>2.8426745715114312</v>
+        <v>2.842527409063841</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -647,13 +652,13 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="E10">
-        <v>0.52028457991353283</v>
+        <v>0.55077726979371344</v>
       </c>
       <c r="F10">
-        <v>2.627362211355655</v>
+        <v>2.6504417609960411</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -667,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E11">
-        <v>0.49329762176264202</v>
+        <v>0.55178945991105921</v>
       </c>
       <c r="F11">
-        <v>2.5305668359547862</v>
+        <v>2.7188066497776711</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -687,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="E12">
-        <v>0.51614969073769934</v>
+        <v>0.56011963792878616</v>
       </c>
       <c r="F12">
-        <v>2.7082498521388989</v>
+        <v>2.8249214504097551</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -707,13 +712,13 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="E13">
-        <v>0.51383685738349472</v>
+        <v>0.58377505566819587</v>
       </c>
       <c r="F13">
-        <v>2.6851812483030422</v>
+        <v>2.9211790333139729</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -727,13 +732,13 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="E14">
-        <v>0.490631260281916</v>
+        <v>0.52263431272232441</v>
       </c>
       <c r="F14">
-        <v>2.5921049037568369</v>
+        <v>2.662168635377844</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -747,13 +752,13 @@
         <v>7</v>
       </c>
       <c r="D15">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="E15">
-        <v>0.47780567902254723</v>
+        <v>0.54002937803950624</v>
       </c>
       <c r="F15">
-        <v>2.5410279347821199</v>
+        <v>2.7766493725065269</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -767,13 +772,13 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="E16">
-        <v>0.53704484465352986</v>
+        <v>0.55495082987352784</v>
       </c>
       <c r="F16">
-        <v>2.9297520809323978</v>
+        <v>2.9347281772767499</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -787,13 +792,13 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="E17">
-        <v>0.53648517761814063</v>
+        <v>0.57923261877029897</v>
       </c>
       <c r="F17">
-        <v>2.8557159541212038</v>
+        <v>2.974821978169031</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -807,13 +812,13 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="E18">
-        <v>0.5416171032117536</v>
+        <v>0.48773076975872948</v>
       </c>
       <c r="F18">
-        <v>2.8669444255840779</v>
+        <v>2.469183372434963</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -827,13 +832,13 @@
         <v>7</v>
       </c>
       <c r="D19">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="E19">
-        <v>0.54764923923538089</v>
+        <v>0.49942839358338498</v>
       </c>
       <c r="F19">
-        <v>2.9538160224788652</v>
+        <v>2.5935100979879309</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -847,13 +852,13 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="E20">
-        <v>0.56507464310687006</v>
+        <v>0.52617171947998043</v>
       </c>
       <c r="F20">
-        <v>3.0554556589753692</v>
+        <v>2.743951714558754</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -867,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="D21">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E21">
-        <v>0.55196563545182886</v>
+        <v>0.50022607695652188</v>
       </c>
       <c r="F21">
-        <v>2.8693917172570869</v>
+        <v>2.5163562267914581</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -887,13 +892,13 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="E22">
-        <v>0.53434903378231835</v>
+        <v>0.47719058236667927</v>
       </c>
       <c r="F22">
-        <v>2.8417322802490861</v>
+        <v>2.4507546470938961</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -907,13 +912,13 @@
         <v>7</v>
       </c>
       <c r="D23">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E23">
-        <v>0.5516202236275054</v>
+        <v>0.50036686441314138</v>
       </c>
       <c r="F23">
-        <v>2.9495726518546879</v>
+        <v>2.5983835365126762</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -927,13 +932,13 @@
         <v>8</v>
       </c>
       <c r="D24">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E24">
-        <v>0.52079612721070823</v>
+        <v>0.4894317411793585</v>
       </c>
       <c r="F24">
-        <v>2.746157748883773</v>
+        <v>2.5049086229563162</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -947,13 +952,13 @@
         <v>11</v>
       </c>
       <c r="D25">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="E25">
-        <v>0.57041431434657486</v>
+        <v>0.52999812909384336</v>
       </c>
       <c r="F25">
-        <v>3.0843281785715781</v>
+        <v>2.7724777800196141</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -967,13 +972,13 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="E26">
-        <v>0.43310686849264368</v>
+        <v>0.39024195067104972</v>
       </c>
       <c r="F26">
-        <v>2.198092638171786</v>
+        <v>1.905474147010457</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -987,13 +992,13 @@
         <v>7</v>
       </c>
       <c r="D27">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="E27">
-        <v>0.55666489321948764</v>
+        <v>0.52137991704635234</v>
       </c>
       <c r="F27">
-        <v>2.9266630998717962</v>
+        <v>2.6589679350864581</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -1007,13 +1012,13 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E28">
-        <v>0.57776766218262554</v>
+        <v>0.5410327197252387</v>
       </c>
       <c r="F28">
-        <v>3.00670677757511</v>
+        <v>2.765752656336748</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1027,13 +1032,13 @@
         <v>11</v>
       </c>
       <c r="D29">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="E29">
-        <v>0.55912095021160879</v>
+        <v>0.51695512241538633</v>
       </c>
       <c r="F29">
-        <v>2.939575808141309</v>
+        <v>2.6580093132705631</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1047,13 +1052,13 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E30">
-        <v>0.52526106932213301</v>
+        <v>0.5105045073092418</v>
       </c>
       <c r="F30">
-        <v>2.7532856422463272</v>
+        <v>2.6278191317626951</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -1067,13 +1072,13 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E31">
-        <v>0.51704471886058045</v>
+        <v>0.49031759001452652</v>
       </c>
       <c r="F31">
-        <v>2.624091818466153</v>
+        <v>2.4087611041471901</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -1087,13 +1092,13 @@
         <v>8</v>
       </c>
       <c r="D32">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="E32">
-        <v>0.52643976888183119</v>
+        <v>0.51495202644659177</v>
       </c>
       <c r="F32">
-        <v>2.8124172088938462</v>
+        <v>2.6937699828114972</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -1107,13 +1112,13 @@
         <v>11</v>
       </c>
       <c r="D33">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E33">
-        <v>0.56934368822724313</v>
+        <v>0.54455641898044105</v>
       </c>
       <c r="F33">
-        <v>3.0021490166933091</v>
+        <v>2.8368591241195191</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1127,13 +1132,13 @@
         <v>4</v>
       </c>
       <c r="D34">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E34">
-        <v>0.55489583775821549</v>
+        <v>0.55062328370235292</v>
       </c>
       <c r="F34">
-        <v>3.000417110026937</v>
+        <v>2.9389727443314908</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -1147,13 +1152,13 @@
         <v>7</v>
       </c>
       <c r="D35">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="E35">
-        <v>0.53440722067515978</v>
+        <v>0.51303454703576035</v>
       </c>
       <c r="F35">
-        <v>2.8799588451503122</v>
+        <v>2.691904618146586</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1167,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="D36">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E36">
-        <v>0.58543266828257279</v>
+        <v>0.57167005482806932</v>
       </c>
       <c r="F36">
-        <v>3.1912159867818768</v>
+        <v>3.0885488751132959</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -1187,13 +1192,13 @@
         <v>11</v>
       </c>
       <c r="D37">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E37">
-        <v>0.57942727332169774</v>
+        <v>0.55581122643159708</v>
       </c>
       <c r="F37">
-        <v>3.0582835852772199</v>
+        <v>2.9045286677373729</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1207,13 +1212,13 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E38">
-        <v>0.58118808462783467</v>
+        <v>0.5787176589894456</v>
       </c>
       <c r="F38">
-        <v>3.073477786569883</v>
+        <v>3.017975413423823</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1227,13 +1232,13 @@
         <v>7</v>
       </c>
       <c r="D39">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E39">
-        <v>0.56325506801311853</v>
+        <v>0.5522607035741095</v>
       </c>
       <c r="F39">
-        <v>2.943428298121658</v>
+        <v>2.7888370315115729</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -1247,13 +1252,13 @@
         <v>8</v>
       </c>
       <c r="D40">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="E40">
-        <v>0.62762255451254112</v>
+        <v>0.6139605277399407</v>
       </c>
       <c r="F40">
-        <v>3.3794305460678529</v>
+        <v>3.2405540616530848</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -1267,13 +1272,13 @@
         <v>11</v>
       </c>
       <c r="D41">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E41">
-        <v>0.60580919671845035</v>
+        <v>0.5830626453487987</v>
       </c>
       <c r="F41">
-        <v>3.2006134070066818</v>
+        <v>3.0310494308877289</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -1287,13 +1292,13 @@
         <v>4</v>
       </c>
       <c r="D42">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E42">
-        <v>0.64232424336536154</v>
+        <v>0.64731897691562712</v>
       </c>
       <c r="F42">
-        <v>3.4253345639644222</v>
+        <v>3.4166237812564719</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1307,13 +1312,13 @@
         <v>7</v>
       </c>
       <c r="D43">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E43">
-        <v>0.59972537435050355</v>
+        <v>0.60248937667730129</v>
       </c>
       <c r="F43">
-        <v>3.134012880153549</v>
+        <v>3.1048034406053429</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -1327,13 +1332,13 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E44">
-        <v>0.60163296547308054</v>
+        <v>0.60315253782342926</v>
       </c>
       <c r="F44">
-        <v>3.199556302638177</v>
+        <v>3.1987018141472801</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -1347,13 +1352,13 @@
         <v>11</v>
       </c>
       <c r="D45">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E45">
-        <v>0.59367642110068897</v>
+        <v>0.59207677974795514</v>
       </c>
       <c r="F45">
-        <v>3.2127666603289731</v>
+        <v>3.1742966007611768</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -1367,13 +1372,13 @@
         <v>4</v>
       </c>
       <c r="D46">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E46">
-        <v>0.6370002919536617</v>
+        <v>0.63904782266179594</v>
       </c>
       <c r="F46">
-        <v>3.3389943789402272</v>
+        <v>3.322088208944237</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -1387,13 +1392,13 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E47">
-        <v>0.58949307780493065</v>
+        <v>0.59975490401327836</v>
       </c>
       <c r="F47">
-        <v>3.0677259188823411</v>
+        <v>3.0872350558501331</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -1407,13 +1412,13 @@
         <v>8</v>
       </c>
       <c r="D48">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E48">
-        <v>0.6429061403438856</v>
+        <v>0.65733536508432155</v>
       </c>
       <c r="F48">
-        <v>3.4063207684443779</v>
+        <v>3.4420984893796862</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1427,13 +1432,13 @@
         <v>11</v>
       </c>
       <c r="D49">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E49">
-        <v>0.53656866642844503</v>
+        <v>0.53616821096281631</v>
       </c>
       <c r="F49">
-        <v>2.812557205625835</v>
+        <v>2.8018792449896961</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1447,13 +1452,13 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="E50">
-        <v>0.53135618730536849</v>
+        <v>0.61455205964094872</v>
       </c>
       <c r="F50">
-        <v>2.8731341765882639</v>
+        <v>3.1981330279283151</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1467,13 +1472,13 @@
         <v>7</v>
       </c>
       <c r="D51">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="E51">
-        <v>0.47910257065226142</v>
+        <v>0.51511866884579205</v>
       </c>
       <c r="F51">
-        <v>2.4958782076036838</v>
+        <v>2.5810717827666072</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1487,13 +1492,13 @@
         <v>8</v>
       </c>
       <c r="D52">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="E52">
-        <v>0.52349611431412613</v>
+        <v>0.54252350321034515</v>
       </c>
       <c r="F52">
-        <v>2.8353075152891889</v>
+        <v>2.855133117595392</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -1507,13 +1512,13 @@
         <v>11</v>
       </c>
       <c r="D53">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="E53">
-        <v>0.56884778026061467</v>
+        <v>0.57767238518362907</v>
       </c>
       <c r="F53">
-        <v>3.070732870244016</v>
+        <v>3.009376291492992</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -1527,13 +1532,13 @@
         <v>4</v>
       </c>
       <c r="D54">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="E54">
-        <v>0.57818991027710265</v>
+        <v>0.61587984525877149</v>
       </c>
       <c r="F54">
-        <v>3.0214740004051039</v>
+        <v>3.0859492895761411</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -1547,13 +1552,13 @@
         <v>7</v>
       </c>
       <c r="D55">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="E55">
-        <v>0.62335613879611684</v>
+        <v>0.6740474833916108</v>
       </c>
       <c r="F55">
-        <v>3.392564489746468</v>
+        <v>3.5367433711349769</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -1567,13 +1572,13 @@
         <v>8</v>
       </c>
       <c r="D56">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="E56">
-        <v>0.52544113311609775</v>
+        <v>0.61382568290333439</v>
       </c>
       <c r="F56">
-        <v>2.786574540150724</v>
+        <v>3.1702782774931642</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -1587,13 +1592,13 @@
         <v>11</v>
       </c>
       <c r="D57">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E57">
-        <v>0.54500237323265188</v>
+        <v>0.57489191475073642</v>
       </c>
       <c r="F57">
-        <v>2.8567645630926739</v>
+        <v>2.87672827313486</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -1607,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="D58">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="E58">
-        <v>0.52644612071386676</v>
+        <v>0.54853794215886975</v>
       </c>
       <c r="F58">
-        <v>2.7308791341310412</v>
+        <v>2.698796212514651</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1627,13 +1632,13 @@
         <v>7</v>
       </c>
       <c r="D59">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="E59">
-        <v>0.52373449015844153</v>
+        <v>0.54503962311704246</v>
       </c>
       <c r="F59">
-        <v>2.6741597495501228</v>
+        <v>2.6855484915601422</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -1647,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="D60">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="E60">
-        <v>0.52041383067014024</v>
+        <v>0.59417043622295673</v>
       </c>
       <c r="F60">
-        <v>2.765065876692629</v>
+        <v>3.065358137632654</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -1667,13 +1672,13 @@
         <v>11</v>
       </c>
       <c r="D61">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="E61">
-        <v>0.5345962887351543</v>
+        <v>0.60260210861273034</v>
       </c>
       <c r="F61">
-        <v>2.853428048390886</v>
+        <v>3.125929624787386</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -1687,13 +1692,13 @@
         <v>4</v>
       </c>
       <c r="D62">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E62">
-        <v>0.45939682183252312</v>
+        <v>0.53464985290614986</v>
       </c>
       <c r="F62">
-        <v>2.4223992387284818</v>
+        <v>2.745853878924557</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -1707,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="D63">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E63">
-        <v>0.51696202477868769</v>
+        <v>0.54408319411479389</v>
       </c>
       <c r="F63">
-        <v>2.7764159093742951</v>
+        <v>2.8403078717243848</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -1727,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="D64">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="E64">
-        <v>0.49815073194393927</v>
+        <v>0.54167609603136246</v>
       </c>
       <c r="F64">
-        <v>2.6368636728388908</v>
+        <v>2.7819392473853588</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -1747,13 +1752,13 @@
         <v>11</v>
       </c>
       <c r="D65">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="E65">
-        <v>0.52444409857381724</v>
+        <v>0.5705473604685376</v>
       </c>
       <c r="F65">
-        <v>2.811698037036348</v>
+        <v>2.943485383478071</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -1767,13 +1772,13 @@
         <v>4</v>
       </c>
       <c r="D66">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="E66">
-        <v>0.53808011924170052</v>
+        <v>0.49309072694667688</v>
       </c>
       <c r="F66">
-        <v>2.8972897454419009</v>
+        <v>2.5523114344196771</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -1787,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="D67">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="E67">
-        <v>0.59717567221212808</v>
+        <v>0.55376251571974511</v>
       </c>
       <c r="F67">
-        <v>3.1931625340467371</v>
+        <v>2.8817838348580231</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -1807,13 +1812,13 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="E68">
-        <v>0.56077173044850626</v>
+        <v>0.51633474344455499</v>
       </c>
       <c r="F68">
-        <v>3.003822154544542</v>
+        <v>2.6755348800252792</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -1827,13 +1832,13 @@
         <v>11</v>
       </c>
       <c r="D69">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="E69">
-        <v>0.56807882118957598</v>
+        <v>0.52094012176699567</v>
       </c>
       <c r="F69">
-        <v>3.0456365335491191</v>
+        <v>2.7166692685758851</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -1847,13 +1852,13 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E70">
-        <v>0.50206492130812097</v>
+        <v>0.45158127420419808</v>
       </c>
       <c r="F70">
-        <v>2.5987632081637311</v>
+        <v>2.2505034283635301</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -1867,13 +1872,13 @@
         <v>7</v>
       </c>
       <c r="D71">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E71">
-        <v>0.54187227626698453</v>
+        <v>0.4977210769112369</v>
       </c>
       <c r="F71">
-        <v>2.8316872452795949</v>
+        <v>2.5532587128370818</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -1887,13 +1892,13 @@
         <v>8</v>
       </c>
       <c r="D72">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="E72">
-        <v>0.54539250806361617</v>
+        <v>0.50204637765042581</v>
       </c>
       <c r="F72">
-        <v>2.8673985870830871</v>
+        <v>2.5416574978422268</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
@@ -1907,13 +1912,13 @@
         <v>11</v>
       </c>
       <c r="D73">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="E73">
-        <v>0.55689061305708587</v>
+        <v>0.51058015688492053</v>
       </c>
       <c r="F73">
-        <v>2.967044225929468</v>
+        <v>2.6514207236241458</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
@@ -1927,13 +1932,13 @@
         <v>4</v>
       </c>
       <c r="D74">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E74">
-        <v>0.50407165855103764</v>
+        <v>0.48180034826745077</v>
       </c>
       <c r="F74">
-        <v>2.6204150205228109</v>
+        <v>2.4299239777925021</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
@@ -1947,13 +1952,13 @@
         <v>7</v>
       </c>
       <c r="D75">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="E75">
-        <v>0.55757775033277823</v>
+        <v>0.52690315796738485</v>
       </c>
       <c r="F75">
-        <v>2.8503306507604762</v>
+        <v>2.6294746895970609</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
@@ -1967,13 +1972,13 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="E76">
-        <v>0.55033346019127338</v>
+        <v>0.51668709791080225</v>
       </c>
       <c r="F76">
-        <v>2.8328384467402161</v>
+        <v>2.588930608796034</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
@@ -1987,13 +1992,13 @@
         <v>11</v>
       </c>
       <c r="D77">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="E77">
-        <v>0.54527389458198294</v>
+        <v>0.5072113779991192</v>
       </c>
       <c r="F77">
-        <v>2.784138774077018</v>
+        <v>2.5064572627505708</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
@@ -2007,13 +2012,13 @@
         <v>4</v>
       </c>
       <c r="D78">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E78">
-        <v>0.45127710709660462</v>
+        <v>0.44570801380268082</v>
       </c>
       <c r="F78">
-        <v>2.3384202901765851</v>
+        <v>2.256439176857767</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
@@ -2027,13 +2032,13 @@
         <v>7</v>
       </c>
       <c r="D79">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="E79">
-        <v>0.40965103963785832</v>
+        <v>0.40559325554721942</v>
       </c>
       <c r="F79">
-        <v>2.0094509126966682</v>
+        <v>1.928024121148159</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
@@ -2047,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="D80">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E80">
-        <v>0.42896087238096958</v>
+        <v>0.42616881105507082</v>
       </c>
       <c r="F80">
-        <v>2.2105604580092848</v>
+        <v>2.1150095955289072</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
@@ -2067,13 +2072,13 @@
         <v>11</v>
       </c>
       <c r="D81">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="E81">
-        <v>0.52184102644040664</v>
+        <v>0.50555433397155747</v>
       </c>
       <c r="F81">
-        <v>2.7040672466764359</v>
+        <v>2.5497254259195339</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
@@ -2087,13 +2092,13 @@
         <v>4</v>
       </c>
       <c r="D82">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E82">
-        <v>0.59719047382874602</v>
+        <v>0.60011442220316802</v>
       </c>
       <c r="F82">
-        <v>3.2679879165290191</v>
+        <v>3.231313143461485</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
@@ -2107,13 +2112,13 @@
         <v>7</v>
       </c>
       <c r="D83">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E83">
-        <v>0.5807868856604349</v>
+        <v>0.57462337472911407</v>
       </c>
       <c r="F83">
-        <v>3.059502934303302</v>
+        <v>3.0120303592698319</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
@@ -2127,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="D84">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E84">
-        <v>0.6258669267936775</v>
+        <v>0.61374418788912222</v>
       </c>
       <c r="F84">
-        <v>3.2216465488906638</v>
+        <v>3.130013379087961</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
@@ -2147,13 +2152,13 @@
         <v>11</v>
       </c>
       <c r="D85">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E85">
-        <v>0.53981746178526224</v>
+        <v>0.52893975963623396</v>
       </c>
       <c r="F85">
-        <v>2.815113384045687</v>
+        <v>2.7134073932296361</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
@@ -2167,13 +2172,13 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E86">
-        <v>0.65163992071826971</v>
+        <v>0.64881964794789715</v>
       </c>
       <c r="F86">
-        <v>3.3692937806017431</v>
+        <v>3.3128377448173332</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
@@ -2187,13 +2192,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E87">
-        <v>0.61321252065313836</v>
+        <v>0.61161227731485157</v>
       </c>
       <c r="F87">
-        <v>3.1671114257036121</v>
+        <v>3.1154001603884058</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
@@ -2207,13 +2212,13 @@
         <v>8</v>
       </c>
       <c r="D88">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E88">
-        <v>0.6266530391742986</v>
+        <v>0.61878004212121618</v>
       </c>
       <c r="F88">
-        <v>3.2436499611386229</v>
+        <v>3.1742789428976721</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
@@ -2227,13 +2232,13 @@
         <v>11</v>
       </c>
       <c r="D89">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E89">
-        <v>0.61633337232801322</v>
+        <v>0.60654842324006775</v>
       </c>
       <c r="F89">
-        <v>3.2339160410809371</v>
+        <v>3.1663985944533608</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
@@ -2247,13 +2252,13 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E90">
-        <v>0.6414054189450088</v>
+        <v>0.64094754753348371</v>
       </c>
       <c r="F90">
-        <v>3.3272173660246822</v>
+        <v>3.3284129580252828</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
@@ -2267,13 +2272,13 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E91">
-        <v>0.59292376341423236</v>
+        <v>0.5972527867838755</v>
       </c>
       <c r="F91">
-        <v>2.9903666008216252</v>
+        <v>2.992615892956632</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
@@ -2287,13 +2292,13 @@
         <v>8</v>
       </c>
       <c r="D92">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="E92">
-        <v>0.65579864815275279</v>
+        <v>0.65973394005307529</v>
       </c>
       <c r="F92">
-        <v>3.427037604209862</v>
+        <v>3.4073846001074202</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
@@ -2307,13 +2312,13 @@
         <v>11</v>
       </c>
       <c r="D93">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E93">
-        <v>0.60786606622338057</v>
+        <v>0.60735227207753417</v>
       </c>
       <c r="F93">
-        <v>3.1325110896493782</v>
+        <v>3.0974154622309649</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
@@ -2327,13 +2332,13 @@
         <v>4</v>
       </c>
       <c r="D94">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E94">
-        <v>0.59650214195953799</v>
+        <v>0.60338058104162928</v>
       </c>
       <c r="F94">
-        <v>3.1009146141203652</v>
+        <v>3.105898208328278</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
@@ -2347,13 +2352,13 @@
         <v>7</v>
       </c>
       <c r="D95">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E95">
-        <v>0.50594077559917239</v>
+        <v>0.51055022500992431</v>
       </c>
       <c r="F95">
-        <v>2.5483997063214221</v>
+        <v>2.5408725320073069</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
@@ -2367,13 +2372,13 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E96">
-        <v>0.68947124361324441</v>
+        <v>0.69089642212100377</v>
       </c>
       <c r="F96">
-        <v>3.5450291665427862</v>
+        <v>3.5276794594628438</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
@@ -2387,13 +2392,13 @@
         <v>11</v>
       </c>
       <c r="D97">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E97">
-        <v>0.67355967181841947</v>
+        <v>0.67664610684671422</v>
       </c>
       <c r="F97">
-        <v>3.6329300000318838</v>
+        <v>3.6148696730658418</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
@@ -2407,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="D98">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="E98">
-        <v>0.58152486451290819</v>
+        <v>0.68112546823218878</v>
       </c>
       <c r="F98">
-        <v>3.1919537675230569</v>
+        <v>3.6256376644452621</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
@@ -2427,13 +2432,13 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="E99">
-        <v>0.59783874395073966</v>
+        <v>0.66966504556232587</v>
       </c>
       <c r="F99">
-        <v>3.2839649537309499</v>
+        <v>3.590269962422743</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
@@ -2447,13 +2452,13 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E100">
-        <v>0.61515952803577767</v>
+        <v>0.63711165773555933</v>
       </c>
       <c r="F100">
-        <v>3.3637292956919351</v>
+        <v>3.3724262117798549</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
@@ -2467,13 +2472,13 @@
         <v>11</v>
       </c>
       <c r="D101">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="E101">
-        <v>0.58085612493050731</v>
+        <v>0.63597483417727685</v>
       </c>
       <c r="F101">
-        <v>3.17860193807967</v>
+        <v>3.3664086581539392</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
@@ -2487,13 +2492,13 @@
         <v>4</v>
       </c>
       <c r="D102">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="E102">
-        <v>0.57694726292092091</v>
+        <v>0.57323997171937036</v>
       </c>
       <c r="F102">
-        <v>2.9698328492980788</v>
+        <v>2.8203297267815559</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
@@ -2507,13 +2512,13 @@
         <v>7</v>
       </c>
       <c r="D103">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="E103">
-        <v>0.60410755266712568</v>
+        <v>0.61868136094082082</v>
       </c>
       <c r="F103">
-        <v>3.2067646075790011</v>
+        <v>3.1360365503082579</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
@@ -2527,13 +2532,13 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="E104">
-        <v>0.57584348768461291</v>
+        <v>0.57825055091833422</v>
       </c>
       <c r="F104">
-        <v>3.0680227949875261</v>
+        <v>2.9419053836982241</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
@@ -2547,13 +2552,13 @@
         <v>11</v>
       </c>
       <c r="D105">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="E105">
-        <v>0.58167432399877717</v>
+        <v>0.58853978292607667</v>
       </c>
       <c r="F105">
-        <v>3.0934138523637151</v>
+        <v>2.9978746374624721</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
@@ -2567,13 +2572,13 @@
         <v>4</v>
       </c>
       <c r="D106">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="E106">
-        <v>0.59900886047211122</v>
+        <v>0.56448468862819401</v>
       </c>
       <c r="F106">
-        <v>3.0585065799539199</v>
+        <v>2.7476486686524271</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -2587,13 +2592,13 @@
         <v>7</v>
       </c>
       <c r="D107">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E107">
-        <v>0.59223047306827115</v>
+        <v>0.55755879510304296</v>
       </c>
       <c r="F107">
-        <v>3.0587436406330939</v>
+        <v>2.774821668972673</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
@@ -2607,13 +2612,13 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="E108">
-        <v>0.58012034482736485</v>
+        <v>0.55555569253198767</v>
       </c>
       <c r="F108">
-        <v>3.0125399190120561</v>
+        <v>2.753237933054431</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
@@ -2627,13 +2632,13 @@
         <v>11</v>
       </c>
       <c r="D109">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="E109">
-        <v>0.57398127838965252</v>
+        <v>0.57494126235144705</v>
       </c>
       <c r="F109">
-        <v>3.0608807502509809</v>
+        <v>2.942545823217785</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
@@ -2647,13 +2652,13 @@
         <v>4</v>
       </c>
       <c r="D110">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E110">
-        <v>0.54788835366934763</v>
+        <v>0.49650294083145652</v>
       </c>
       <c r="F110">
-        <v>2.9501021352922452</v>
+        <v>2.5945985915388059</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
@@ -2667,13 +2672,13 @@
         <v>7</v>
       </c>
       <c r="D111">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="E111">
-        <v>0.56525873230261714</v>
+        <v>0.52055879149801332</v>
       </c>
       <c r="F111">
-        <v>2.9718451690793</v>
+        <v>2.6610901852594839</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -2687,13 +2692,13 @@
         <v>8</v>
       </c>
       <c r="D112">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E112">
-        <v>0.5483646255723954</v>
+        <v>0.49396311544665222</v>
       </c>
       <c r="F112">
-        <v>2.8656146180669309</v>
+        <v>2.5130849358863578</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
@@ -2707,13 +2712,13 @@
         <v>11</v>
       </c>
       <c r="D113">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E113">
-        <v>0.59073193890210762</v>
+        <v>0.56736346469918852</v>
       </c>
       <c r="F113">
-        <v>3.047618739808192</v>
+        <v>2.8466212715806951</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
@@ -2727,13 +2732,13 @@
         <v>4</v>
       </c>
       <c r="D114">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E114">
-        <v>0.51684931657921174</v>
+        <v>0.45619247920214179</v>
       </c>
       <c r="F114">
-        <v>2.6953359823246981</v>
+        <v>2.3320503828214449</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
@@ -2747,13 +2752,13 @@
         <v>7</v>
       </c>
       <c r="D115">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E115">
-        <v>0.50050732853676483</v>
+        <v>0.45403680533397572</v>
       </c>
       <c r="F115">
-        <v>2.5144890183766599</v>
+        <v>2.2169717860097098</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
@@ -2767,13 +2772,13 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="E116">
-        <v>0.55326205646860427</v>
+        <v>0.51900246510420234</v>
       </c>
       <c r="F116">
-        <v>2.9313579620396859</v>
+        <v>2.65625140503235</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
@@ -2787,13 +2792,13 @@
         <v>11</v>
       </c>
       <c r="D117">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E117">
-        <v>0.5583579981579172</v>
+        <v>0.49962647192953258</v>
       </c>
       <c r="F117">
-        <v>2.8372427690636268</v>
+        <v>2.476062388282235</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
@@ -2807,13 +2812,13 @@
         <v>4</v>
       </c>
       <c r="D118">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="E118">
-        <v>0.51115428706213362</v>
+        <v>0.46500378621618799</v>
       </c>
       <c r="F118">
-        <v>2.613014473427723</v>
+        <v>2.314200033215426</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
@@ -2827,13 +2832,13 @@
         <v>7</v>
       </c>
       <c r="D119">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="E119">
-        <v>0.49231104955963612</v>
+        <v>0.45969171988080432</v>
       </c>
       <c r="F119">
-        <v>2.498564147675348</v>
+        <v>2.265017720818947</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
@@ -2847,13 +2852,13 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="E120">
-        <v>0.55423106054670401</v>
+        <v>0.51148848504719246</v>
       </c>
       <c r="F120">
-        <v>2.8398599905077782</v>
+        <v>2.5312336991918389</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
@@ -2867,13 +2872,13 @@
         <v>11</v>
       </c>
       <c r="D121">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E121">
-        <v>0.52810581910866339</v>
+        <v>0.48168047472680009</v>
       </c>
       <c r="F121">
-        <v>2.7153424440880012</v>
+        <v>2.432417038873941</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
@@ -2887,13 +2892,13 @@
         <v>4</v>
       </c>
       <c r="D122">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E122">
-        <v>0.46501974932402979</v>
+        <v>0.4394758339229678</v>
       </c>
       <c r="F122">
-        <v>2.3827444452474622</v>
+        <v>2.1654089222344788</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
@@ -2907,13 +2912,13 @@
         <v>7</v>
       </c>
       <c r="D123">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="E123">
-        <v>0.46830041291268659</v>
+        <v>0.44265973909033662</v>
       </c>
       <c r="F123">
-        <v>2.3995544473042791</v>
+        <v>2.190616761895523</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
@@ -2927,13 +2932,13 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="E124">
-        <v>0.53496920424142191</v>
+        <v>0.50059325315536796</v>
       </c>
       <c r="F124">
-        <v>2.781035820067673</v>
+        <v>2.514920693394322</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
@@ -2947,13 +2952,13 @@
         <v>11</v>
       </c>
       <c r="D125">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="E125">
-        <v>0.52205337360783177</v>
+        <v>0.48319910127241922</v>
       </c>
       <c r="F125">
-        <v>2.4949575424673189</v>
+        <v>2.239496881753789</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
@@ -2967,13 +2972,13 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="E126">
-        <v>0.50820479812452257</v>
+        <v>0.51820939380108444</v>
       </c>
       <c r="F126">
-        <v>2.639085588076016</v>
+        <v>2.6201940736988232</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -2987,13 +2992,13 @@
         <v>7</v>
       </c>
       <c r="D127">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E127">
-        <v>0.3585163052514031</v>
+        <v>0.35696499345180888</v>
       </c>
       <c r="F127">
-        <v>1.763893383435277</v>
+        <v>1.714867340775559</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
@@ -3007,13 +3012,13 @@
         <v>8</v>
       </c>
       <c r="D128">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E128">
-        <v>0.4945178748780038</v>
+        <v>0.47963292573438032</v>
       </c>
       <c r="F128">
-        <v>2.4745408932197859</v>
+        <v>2.3735881849790319</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
@@ -3027,13 +3032,13 @@
         <v>11</v>
       </c>
       <c r="D129">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E129">
-        <v>0.35860534567708968</v>
+        <v>0.34437215568577129</v>
       </c>
       <c r="F129">
-        <v>1.7746517511619799</v>
+        <v>1.67358407391848</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
@@ -3047,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="D130">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E130">
-        <v>0.4741656942191711</v>
+        <v>0.47313736289350899</v>
       </c>
       <c r="F130">
-        <v>2.4407652920876002</v>
+        <v>2.4215140957121601</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
@@ -3067,13 +3072,13 @@
         <v>7</v>
       </c>
       <c r="D131">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E131">
-        <v>0.43334884646544097</v>
+        <v>0.43695581385620508</v>
       </c>
       <c r="F131">
-        <v>2.19932071844319</v>
+        <v>2.2121303328806801</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
@@ -3087,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E132">
-        <v>0.43309375789966642</v>
+        <v>0.42881803261968948</v>
       </c>
       <c r="F132">
-        <v>2.094563505343781</v>
+        <v>2.0384251936304851</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
@@ -3107,13 +3112,13 @@
         <v>11</v>
       </c>
       <c r="D133">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E133">
-        <v>0.3473999983852647</v>
+        <v>0.34642932564567158</v>
       </c>
       <c r="F133">
-        <v>1.7191991779264379</v>
+        <v>1.6915457773029849</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
@@ -3127,13 +3132,13 @@
         <v>4</v>
       </c>
       <c r="D134">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E134">
-        <v>0.5126463221633395</v>
+        <v>0.52536017992891371</v>
       </c>
       <c r="F134">
-        <v>2.6267812889385098</v>
+        <v>2.6596858374582721</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
@@ -3147,13 +3152,13 @@
         <v>7</v>
       </c>
       <c r="D135">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E135">
-        <v>0.59696704743156215</v>
+        <v>0.60231385246718538</v>
       </c>
       <c r="F135">
-        <v>3.122799465797486</v>
+        <v>3.1344453159582191</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
@@ -3167,13 +3172,13 @@
         <v>8</v>
       </c>
       <c r="D136">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E136">
-        <v>0.60180983005528377</v>
+        <v>0.60982478729167322</v>
       </c>
       <c r="F136">
-        <v>3.13511997631685</v>
+        <v>3.1667938070089598</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
@@ -3187,13 +3192,13 @@
         <v>11</v>
       </c>
       <c r="D137">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E137">
-        <v>0.55705694256903759</v>
+        <v>0.56068313689274185</v>
       </c>
       <c r="F137">
-        <v>2.7874830299696081</v>
+        <v>2.7544427518059438</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
@@ -3207,13 +3212,13 @@
         <v>4</v>
       </c>
       <c r="D138">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E138">
-        <v>0.55016883759939994</v>
+        <v>0.54708907545462448</v>
       </c>
       <c r="F138">
-        <v>2.8508558325558879</v>
+        <v>2.8287153084983561</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
@@ -3227,13 +3232,13 @@
         <v>7</v>
       </c>
       <c r="D139">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E139">
-        <v>0.54057727392845212</v>
+        <v>0.54663600070354146</v>
       </c>
       <c r="F139">
-        <v>2.7919659222074791</v>
+        <v>2.7910936136633619</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -3247,13 +3252,13 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E140">
-        <v>0.54918861854426793</v>
+        <v>0.54915593034073351</v>
       </c>
       <c r="F140">
-        <v>2.8140226993190649</v>
+        <v>2.8039602369889312</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
@@ -3267,13 +3272,13 @@
         <v>11</v>
       </c>
       <c r="D141">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E141">
-        <v>0.59322887073564479</v>
+        <v>0.59341583459273028</v>
       </c>
       <c r="F141">
-        <v>3.0144357731909088</v>
+        <v>3.0079680176311161</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
@@ -3287,13 +3292,13 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E142">
-        <v>0.57491220605332571</v>
+        <v>0.57808070003195478</v>
       </c>
       <c r="F142">
-        <v>2.998130220833354</v>
+        <v>2.9654954402157561</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
@@ -3307,13 +3312,13 @@
         <v>7</v>
       </c>
       <c r="D143">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E143">
-        <v>0.64109355634320953</v>
+        <v>0.64532058441827767</v>
       </c>
       <c r="F143">
-        <v>3.2962873749585651</v>
+        <v>3.2910487836586659</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
@@ -3327,13 +3332,13 @@
         <v>8</v>
       </c>
       <c r="D144">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="E144">
-        <v>0.53024344149104374</v>
+        <v>0.53703658845966429</v>
       </c>
       <c r="F144">
-        <v>2.779401976690631</v>
+        <v>2.754943305005904</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
@@ -3347,13 +3352,13 @@
         <v>11</v>
       </c>
       <c r="D145">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E145">
-        <v>0.57779737155186572</v>
+        <v>0.57635593527450357</v>
       </c>
       <c r="F145">
-        <v>2.9065738087353798</v>
+        <v>2.8801729538105452</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -3367,13 +3372,13 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E146">
-        <v>0.57627433576577125</v>
+        <v>0.66324256722900432</v>
       </c>
       <c r="F146">
-        <v>3.1887503521497522</v>
+        <v>3.5527160323971141</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
@@ -3387,13 +3392,13 @@
         <v>7</v>
       </c>
       <c r="D147">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E147">
-        <v>0.55494897500044416</v>
+        <v>0.65443533884893923</v>
       </c>
       <c r="F147">
-        <v>3.0391578347716841</v>
+        <v>3.4899196304567282</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
@@ -3407,13 +3412,13 @@
         <v>8</v>
       </c>
       <c r="D148">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="E148">
-        <v>0.63279011260055085</v>
+        <v>0.67769972924462452</v>
       </c>
       <c r="F148">
-        <v>3.4520732628593631</v>
+        <v>3.530467355284252</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
@@ -3427,13 +3432,13 @@
         <v>11</v>
       </c>
       <c r="D149">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="E149">
-        <v>0.57433895582236738</v>
+        <v>0.61817311188173596</v>
       </c>
       <c r="F149">
-        <v>3.130743733568496</v>
+        <v>3.2500422748302391</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
@@ -3447,13 +3452,13 @@
         <v>4</v>
       </c>
       <c r="D150">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="E150">
-        <v>0.58645203395401335</v>
+        <v>0.58635332815274166</v>
       </c>
       <c r="F150">
-        <v>3.0322408554167959</v>
+        <v>2.8848471903073278</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
@@ -3467,13 +3472,13 @@
         <v>7</v>
       </c>
       <c r="D151">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="E151">
-        <v>0.60713861970934757</v>
+        <v>0.62234858890669364</v>
       </c>
       <c r="F151">
-        <v>3.280174088364848</v>
+        <v>3.2142972628763831</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
@@ -3487,13 +3492,13 @@
         <v>8</v>
       </c>
       <c r="D152">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="E152">
-        <v>0.62086389350375948</v>
+        <v>0.62807631235805084</v>
       </c>
       <c r="F152">
-        <v>3.3048647008072378</v>
+        <v>3.203105299506448</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
@@ -3507,13 +3512,13 @@
         <v>11</v>
       </c>
       <c r="D153">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="E153">
-        <v>0.56013055617909568</v>
+        <v>0.57709016766726606</v>
       </c>
       <c r="F153">
-        <v>2.9149231599920582</v>
+        <v>2.8838420689354529</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
@@ -3527,13 +3532,13 @@
         <v>4</v>
       </c>
       <c r="D154">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="E154">
-        <v>0.59217345015409528</v>
+        <v>0.57112461266781989</v>
       </c>
       <c r="F154">
-        <v>3.084919388658089</v>
+        <v>2.8344027171877588</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
@@ -3547,13 +3552,13 @@
         <v>7</v>
       </c>
       <c r="D155">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="E155">
-        <v>0.58544218253135605</v>
+        <v>0.58514018739686036</v>
       </c>
       <c r="F155">
-        <v>3.062511645709932</v>
+        <v>2.931924074964805</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
@@ -3567,13 +3572,13 @@
         <v>8</v>
       </c>
       <c r="D156">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="E156">
-        <v>0.61021501038964854</v>
+        <v>0.58597694294500458</v>
       </c>
       <c r="F156">
-        <v>3.3263054865769681</v>
+        <v>3.0898561614775431</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
@@ -3587,13 +3592,13 @@
         <v>11</v>
       </c>
       <c r="D157">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="E157">
-        <v>0.56515666478248672</v>
+        <v>0.56988055179869657</v>
       </c>
       <c r="F157">
-        <v>3.0055709586340562</v>
+        <v>2.9097790241205201</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
@@ -3607,13 +3612,13 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E158">
-        <v>0.50499997219915016</v>
+        <v>0.43898593176683898</v>
       </c>
       <c r="F158">
-        <v>2.6082167732459349</v>
+        <v>2.1724359715680199</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
@@ -3627,13 +3632,13 @@
         <v>7</v>
       </c>
       <c r="D159">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="E159">
-        <v>0.54648667055292244</v>
+        <v>0.49595022565471331</v>
       </c>
       <c r="F159">
-        <v>2.8927205298854091</v>
+        <v>2.526246561518855</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
@@ -3647,13 +3652,13 @@
         <v>8</v>
       </c>
       <c r="D160">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="E160">
-        <v>0.54926080137615174</v>
+        <v>0.50611492270072189</v>
       </c>
       <c r="F160">
-        <v>2.964999171394493</v>
+        <v>2.6254133661419159</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -3667,13 +3672,13 @@
         <v>11</v>
       </c>
       <c r="D161">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="E161">
-        <v>0.57510753254115943</v>
+        <v>0.53818812559059537</v>
       </c>
       <c r="F161">
-        <v>3.0668867469307148</v>
+        <v>2.7640257342471899</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -3687,13 +3692,13 @@
         <v>4</v>
       </c>
       <c r="D162">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E162">
-        <v>0.5217924549645484</v>
+        <v>0.4710406094164063</v>
       </c>
       <c r="F162">
-        <v>2.7405966461655149</v>
+        <v>2.4079538431566929</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -3707,13 +3712,13 @@
         <v>7</v>
       </c>
       <c r="D163">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E163">
-        <v>0.51968617795107508</v>
+        <v>0.47263046433213729</v>
       </c>
       <c r="F163">
-        <v>2.6690034604777559</v>
+        <v>2.3521559795376512</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -3727,13 +3732,13 @@
         <v>8</v>
       </c>
       <c r="D164">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E164">
-        <v>0.56854614725513652</v>
+        <v>0.5256515076497057</v>
       </c>
       <c r="F164">
-        <v>2.995020460621991</v>
+        <v>2.717872707270478</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -3747,13 +3752,13 @@
         <v>11</v>
       </c>
       <c r="D165">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="E165">
-        <v>0.50160737212469331</v>
+        <v>0.44770480517850469</v>
       </c>
       <c r="F165">
-        <v>2.5849290545083021</v>
+        <v>2.2250092950602149</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -3767,13 +3772,13 @@
         <v>4</v>
       </c>
       <c r="D166">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="E166">
-        <v>0.51049006795296303</v>
+        <v>0.48010284385087909</v>
       </c>
       <c r="F166">
-        <v>2.5811632647591418</v>
+        <v>2.344247088994257</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -3787,13 +3792,13 @@
         <v>7</v>
       </c>
       <c r="D167">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E167">
-        <v>0.57640233979763533</v>
+        <v>0.52940063183332209</v>
       </c>
       <c r="F167">
-        <v>3.0452509908721681</v>
+        <v>2.7372574938572769</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -3807,13 +3812,13 @@
         <v>8</v>
       </c>
       <c r="D168">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E168">
-        <v>0.51323694366243755</v>
+        <v>0.47132559188076828</v>
       </c>
       <c r="F168">
-        <v>2.6111423936828859</v>
+        <v>2.3489013406775978</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -3827,13 +3832,13 @@
         <v>11</v>
       </c>
       <c r="D169">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E169">
-        <v>0.55083861317015459</v>
+        <v>0.52619412258106535</v>
       </c>
       <c r="F169">
-        <v>2.8785430505267282</v>
+        <v>2.6993225532286811</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -3847,13 +3852,13 @@
         <v>4</v>
       </c>
       <c r="D170">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E170">
-        <v>0.46478678046969413</v>
+        <v>0.43381117927153612</v>
       </c>
       <c r="F170">
-        <v>2.3617695750657788</v>
+        <v>2.170767847993647</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -3867,13 +3872,13 @@
         <v>7</v>
       </c>
       <c r="D171">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E171">
-        <v>0.41331333240590468</v>
+        <v>0.3844073795229101</v>
       </c>
       <c r="F171">
-        <v>2.054090096282942</v>
+        <v>1.865156239119194</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -3887,13 +3892,13 @@
         <v>8</v>
       </c>
       <c r="D172">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E172">
-        <v>0.57030032695235211</v>
+        <v>0.56280828853758491</v>
       </c>
       <c r="F172">
-        <v>2.9289475278111441</v>
+        <v>2.7931300926345211</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -3907,13 +3912,13 @@
         <v>11</v>
       </c>
       <c r="D173">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E173">
-        <v>0.46349193878461692</v>
+        <v>0.45158170893596222</v>
       </c>
       <c r="F173">
-        <v>2.3665645670267188</v>
+        <v>2.2505055948956278</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -3927,13 +3932,13 @@
         <v>4</v>
       </c>
       <c r="D174">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E174">
-        <v>0.29036683404874891</v>
+        <v>0.29686218461649128</v>
       </c>
       <c r="F174">
-        <v>1.3457715829862</v>
+        <v>1.3391036076026599</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -3947,13 +3952,13 @@
         <v>7</v>
       </c>
       <c r="D175">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E175">
-        <v>0.32970578350750079</v>
+        <v>0.32578242160798881</v>
       </c>
       <c r="F175">
-        <v>1.614846108737036</v>
+        <v>1.5596806533917851</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
@@ -3967,13 +3972,13 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E176">
-        <v>0.39420949148459189</v>
+        <v>0.39175852033778608</v>
       </c>
       <c r="F176">
-        <v>2.019915234705925</v>
+        <v>1.9442366690169479</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -3987,13 +3992,13 @@
         <v>11</v>
       </c>
       <c r="D177">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E177">
-        <v>0.34831758873620011</v>
+        <v>0.35664798115988477</v>
       </c>
       <c r="F177">
-        <v>1.7358778416832079</v>
+        <v>1.7304667981535951</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -4007,13 +4012,13 @@
         <v>4</v>
       </c>
       <c r="D178">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E178">
-        <v>0.41510232848192058</v>
+        <v>0.42028201084203581</v>
       </c>
       <c r="F178">
-        <v>2.0826845429072658</v>
+        <v>2.0828449611540281</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -4027,13 +4032,13 @@
         <v>7</v>
       </c>
       <c r="D179">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E179">
-        <v>0.43657150081423418</v>
+        <v>0.42931799012736283</v>
       </c>
       <c r="F179">
-        <v>2.247249389175431</v>
+        <v>2.1894644047114982</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -4047,13 +4052,13 @@
         <v>8</v>
       </c>
       <c r="D180">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="E180">
-        <v>0.37902044538081497</v>
+        <v>0.37302902593988641</v>
       </c>
       <c r="F180">
-        <v>1.9091080187288689</v>
+        <v>1.853884614243928</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -4067,13 +4072,13 @@
         <v>11</v>
       </c>
       <c r="D181">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="E181">
-        <v>0.39480231283378581</v>
+        <v>0.39923068098102699</v>
       </c>
       <c r="F181">
-        <v>2.0110243602760711</v>
+        <v>1.9868648010478209</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -4087,13 +4092,13 @@
         <v>4</v>
       </c>
       <c r="D182">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E182">
-        <v>0.40340189293933881</v>
+        <v>0.40853991598713602</v>
       </c>
       <c r="F182">
-        <v>2.0396991290440991</v>
+        <v>2.0331943850188461</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -4107,13 +4112,13 @@
         <v>7</v>
       </c>
       <c r="D183">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E183">
-        <v>0.55824888893062918</v>
+        <v>0.5533723739560078</v>
       </c>
       <c r="F183">
-        <v>3.010986585056842</v>
+        <v>2.9291686569305821</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -4127,13 +4132,13 @@
         <v>8</v>
       </c>
       <c r="D184">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E184">
-        <v>0.44390653296572907</v>
+        <v>0.45133431959243342</v>
       </c>
       <c r="F184">
-        <v>2.3002275703890058</v>
+        <v>2.2820572602489739</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -4147,13 +4152,13 @@
         <v>11</v>
       </c>
       <c r="D185">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E185">
-        <v>0.46721902264318971</v>
+        <v>0.46633501492519658</v>
       </c>
       <c r="F185">
-        <v>2.451509458780111</v>
+        <v>2.413819862794869</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -4167,13 +4172,13 @@
         <v>4</v>
       </c>
       <c r="D186">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E186">
-        <v>0.53158753655978186</v>
+        <v>0.53060668342569062</v>
       </c>
       <c r="F186">
-        <v>2.6154005402820881</v>
+        <v>2.5988265322023012</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -4187,13 +4192,13 @@
         <v>7</v>
       </c>
       <c r="D187">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E187">
-        <v>0.58834309016684283</v>
+        <v>0.59075391746976602</v>
       </c>
       <c r="F187">
-        <v>3.0519625948959681</v>
+        <v>3.009152885739002</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -4207,13 +4212,13 @@
         <v>8</v>
       </c>
       <c r="D188">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E188">
-        <v>0.48505535141020578</v>
+        <v>0.48952232072336721</v>
       </c>
       <c r="F188">
-        <v>2.488284823865774</v>
+        <v>2.4751451807818938</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -4227,13 +4232,13 @@
         <v>11</v>
       </c>
       <c r="D189">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E189">
-        <v>0.58106395060626814</v>
+        <v>0.58856149908306388</v>
       </c>
       <c r="F189">
-        <v>2.9910234764211698</v>
+        <v>2.997985254141486</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -4247,13 +4252,13 @@
         <v>4</v>
       </c>
       <c r="D190">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E190">
-        <v>0.3606199641176091</v>
+        <v>0.36329054537336553</v>
       </c>
       <c r="F190">
-        <v>1.7971880410967389</v>
+        <v>1.765523898792799</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -4267,13 +4272,13 @@
         <v>7</v>
       </c>
       <c r="D191">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E191">
-        <v>0.46057822952917349</v>
+        <v>0.46471236641459113</v>
       </c>
       <c r="F191">
-        <v>2.304708730251408</v>
+        <v>2.2931110584762782</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -4287,13 +4292,13 @@
         <v>8</v>
       </c>
       <c r="D192">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E192">
-        <v>0.55502990291218735</v>
+        <v>0.5625837449758484</v>
       </c>
       <c r="F192">
-        <v>2.809891629664679</v>
+        <v>2.8036960767271122</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -4307,17 +4312,18 @@
         <v>11</v>
       </c>
       <c r="D193">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E193">
-        <v>0.58599152286075118</v>
+        <v>0.59032934078322774</v>
       </c>
       <c r="F193">
-        <v>2.9516115260657871</v>
+        <v>2.9419692117160108</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:F193">
+  <sortState ref="A2:F193">
+    <sortCondition ref="A2:A193"/>
     <sortCondition ref="B2:B193"/>
     <sortCondition ref="C2:C193"/>
   </sortState>

--- a/Data/Diversity_PP.xlsx
+++ b/Data/Diversity_PP.xlsx
@@ -429,7 +429,7 @@
         <v>216.4316619487797</v>
       </c>
       <c r="C2">
-        <v>38.03746840454111</v>
+        <v>38.03746840405854</v>
       </c>
       <c r="D2">
         <v>12.21192723229918</v>
@@ -464,11 +464,11 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L2">
-        <v>0.6811254682321888</v>
+        <v>0.6811254682321877</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>149.5355116048399</v>
       </c>
       <c r="C3">
-        <v>16.93683830995122</v>
+        <v>16.93683830975386</v>
       </c>
       <c r="D3">
         <v>7.86406238643268</v>
@@ -516,11 +516,11 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L3">
-        <v>0.5732399717193704</v>
+        <v>0.5732399717193691</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         <v>147.0745183090537</v>
       </c>
       <c r="C4">
-        <v>15.74547346190107</v>
+        <v>15.74547346184215</v>
       </c>
       <c r="D4">
-        <v>7.001951889521277</v>
+        <v>7.001951889521276</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -568,11 +568,11 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L4">
-        <v>0.564484688628194</v>
+        <v>0.5644846886281936</v>
       </c>
     </row>
     <row r="5">
@@ -585,7 +585,7 @@
         <v>227.8869162216268</v>
       </c>
       <c r="C5">
-        <v>13.58506622046783</v>
+        <v>13.58506622032659</v>
       </c>
       <c r="D5">
         <v>4.666469444275361</v>
@@ -620,11 +620,11 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L5">
-        <v>0.4965029408314565</v>
+        <v>0.4965029408314556</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>200.1490366180071</v>
       </c>
       <c r="C6">
-        <v>10.43033514357016</v>
+        <v>10.4303351434784</v>
       </c>
       <c r="D6">
         <v>4.179953685362942</v>
@@ -672,11 +672,11 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L6">
-        <v>0.4561924792021418</v>
+        <v>0.456192479202141</v>
       </c>
     </row>
     <row r="7">
@@ -689,7 +689,7 @@
         <v>183.140429092842</v>
       </c>
       <c r="C7">
-        <v>10.23492530787944</v>
+        <v>10.23492530781381</v>
       </c>
       <c r="D7">
         <v>4.169164949548628</v>
@@ -724,11 +724,11 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L7">
-        <v>0.465003786216188</v>
+        <v>0.4650037862161875</v>
       </c>
     </row>
     <row r="8">
@@ -741,7 +741,7 @@
         <v>172.4133878627657</v>
       </c>
       <c r="C8">
-        <v>8.813665338846278</v>
+        <v>8.813665338846279</v>
       </c>
       <c r="D8">
         <v>3.244382816438148</v>
@@ -776,7 +776,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L8">
@@ -793,7 +793,7 @@
         <v>179.505487813775</v>
       </c>
       <c r="C9">
-        <v>13.89001234519181</v>
+        <v>13.89001234506966</v>
       </c>
       <c r="D9">
         <v>4.235264114266143</v>
@@ -828,11 +828,11 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L9">
-        <v>0.5182093938010844</v>
+        <v>0.5182093938010837</v>
       </c>
     </row>
     <row r="10">
@@ -845,7 +845,7 @@
         <v>183.1736789043961</v>
       </c>
       <c r="C10">
-        <v>11.39013728118217</v>
+        <v>11.39013728110114</v>
       </c>
       <c r="D10">
         <v>3.186778041631792</v>
@@ -880,11 +880,11 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L10">
-        <v>0.473137362893509</v>
+        <v>0.4731373628935083</v>
       </c>
     </row>
     <row r="11">
@@ -897,7 +897,7 @@
         <v>172.9621072866574</v>
       </c>
       <c r="C11">
-        <v>14.44195975789294</v>
+        <v>14.44195975781399</v>
       </c>
       <c r="D11">
         <v>4.338710364672028</v>
@@ -932,11 +932,11 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L11">
-        <v>0.5253601799289137</v>
+        <v>0.5253601799289132</v>
       </c>
     </row>
     <row r="12">
@@ -949,7 +949,7 @@
         <v>197.9452851426436</v>
       </c>
       <c r="C12">
-        <v>17.12927639147937</v>
+        <v>17.12927639133293</v>
       </c>
       <c r="D12">
         <v>5.743319375209725</v>
@@ -984,11 +984,11 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L12">
-        <v>0.5470890754546245</v>
+        <v>0.5470890754546237</v>
       </c>
     </row>
     <row r="13">
@@ -1001,7 +1001,7 @@
         <v>188.518612573977</v>
       </c>
       <c r="C13">
-        <v>19.6265864687458</v>
+        <v>19.62658646859825</v>
       </c>
       <c r="D13">
         <v>7.21738737827851</v>
@@ -1036,11 +1036,11 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L13">
-        <v>0.5780807000319548</v>
+        <v>0.5780807000319541</v>
       </c>
     </row>
     <row r="14">
@@ -1053,10 +1053,10 @@
         <v>216.1657135422984</v>
       </c>
       <c r="C14">
-        <v>36.68925459694105</v>
+        <v>36.6892545965226</v>
       </c>
       <c r="D14">
-        <v>15.11988162339923</v>
+        <v>15.11988162339922</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1088,11 +1088,11 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L14">
-        <v>0.6781090419617352</v>
+        <v>0.6781090419617342</v>
       </c>
     </row>
     <row r="15">
@@ -1105,7 +1105,7 @@
         <v>158.6642439233951</v>
       </c>
       <c r="C15">
-        <v>16.65018233110967</v>
+        <v>16.65018233103209</v>
       </c>
       <c r="D15">
         <v>7.696012873792524</v>
@@ -1140,11 +1140,11 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L15">
-        <v>0.5671651997700005</v>
+        <v>0.56716519977</v>
       </c>
     </row>
     <row r="16">
@@ -1157,7 +1157,7 @@
         <v>132.3822731032899</v>
       </c>
       <c r="C16">
-        <v>14.27327073396622</v>
+        <v>14.27327073385921</v>
       </c>
       <c r="D16">
         <v>6.355371383894418</v>
@@ -1192,11 +1192,11 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L16">
-        <v>0.5507772697937134</v>
+        <v>0.5507772697937127</v>
       </c>
     </row>
     <row r="17">
@@ -1209,7 +1209,7 @@
         <v>180.8330499593794</v>
       </c>
       <c r="C17">
-        <v>14.48634712275326</v>
+        <v>14.48634712265899</v>
       </c>
       <c r="D17">
         <v>5.685289734117722</v>
@@ -1244,11 +1244,11 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L17">
-        <v>0.5226343127223244</v>
+        <v>0.5226343127223237</v>
       </c>
     </row>
     <row r="18">
@@ -1261,7 +1261,7 @@
         <v>180.7862023073902</v>
       </c>
       <c r="C18">
-        <v>11.94595336611657</v>
+        <v>11.94595336599318</v>
       </c>
       <c r="D18">
         <v>4.995039328060995</v>
@@ -1296,11 +1296,11 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L18">
-        <v>0.4877307697587295</v>
+        <v>0.4877307697587286</v>
       </c>
     </row>
     <row r="19">
@@ -1313,7 +1313,7 @@
         <v>211.9640217839922</v>
       </c>
       <c r="C19">
-        <v>11.75398810155301</v>
+        <v>11.75398810146352</v>
       </c>
       <c r="D19">
         <v>4.966504753237937</v>
@@ -1348,11 +1348,11 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L19">
-        <v>0.4771905823666793</v>
+        <v>0.4771905823666787</v>
       </c>
     </row>
     <row r="20">
@@ -1365,7 +1365,7 @@
         <v>164.137231864156</v>
       </c>
       <c r="C20">
-        <v>6.793289870210578</v>
+        <v>6.793289870247939</v>
       </c>
       <c r="D20">
         <v>3.33628348323232</v>
@@ -1400,11 +1400,11 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L20">
-        <v>0.3902419506710497</v>
+        <v>0.3902419506710502</v>
       </c>
     </row>
     <row r="21">
@@ -1417,7 +1417,7 @@
         <v>209.9474634623132</v>
       </c>
       <c r="C21">
-        <v>14.02715801842082</v>
+        <v>14.02715801833268</v>
       </c>
       <c r="D21">
         <v>4.439165204252078</v>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L21">
-        <v>0.5105045073092418</v>
+        <v>0.5105045073092412</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1469,7 @@
         <v>238.7053408941161</v>
       </c>
       <c r="C22">
-        <v>19.17724836979836</v>
+        <v>19.17724836952524</v>
       </c>
       <c r="D22">
         <v>5.360121528020346</v>
@@ -1504,11 +1504,11 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L22">
-        <v>0.5506232837023529</v>
+        <v>0.5506232837023517</v>
       </c>
     </row>
     <row r="23">
@@ -1521,7 +1521,7 @@
         <v>205.5538874132096</v>
       </c>
       <c r="C23">
-        <v>20.70904451324046</v>
+        <v>20.70904451302827</v>
       </c>
       <c r="D23">
         <v>6.49591568902631</v>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L23">
-        <v>0.5787176589894456</v>
+        <v>0.5787176589894447</v>
       </c>
     </row>
     <row r="24">
@@ -1573,7 +1573,7 @@
         <v>213.6850921654193</v>
       </c>
       <c r="C24">
-        <v>30.86485272401076</v>
+        <v>30.86485272350563</v>
       </c>
       <c r="D24">
         <v>12.50363853533951</v>
@@ -1608,11 +1608,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L24">
-        <v>0.6473189769156271</v>
+        <v>0.6473189769156256</v>
       </c>
     </row>
     <row r="25">
@@ -1625,10 +1625,10 @@
         <v>196.8121800971838</v>
       </c>
       <c r="C25">
-        <v>28.04896402434592</v>
+        <v>28.04896402416595</v>
       </c>
       <c r="D25">
-        <v>10.54642447707212</v>
+        <v>10.54642447707211</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L25">
-        <v>0.6390478226617959</v>
+        <v>0.6390478226617954</v>
       </c>
     </row>
     <row r="26">
@@ -1677,7 +1677,7 @@
         <v>234.2247679374745</v>
       </c>
       <c r="C26">
-        <v>36.76262765963935</v>
+        <v>36.76262765929284</v>
       </c>
       <c r="D26">
         <v>12.22867954722458</v>
@@ -1712,11 +1712,11 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L26">
-        <v>0.6696650455623259</v>
+        <v>0.669665045562325</v>
       </c>
     </row>
     <row r="27">
@@ -1729,7 +1729,7 @@
         <v>182.7660367901737</v>
       </c>
       <c r="C27">
-        <v>23.27159583980007</v>
+        <v>23.27159583954692</v>
       </c>
       <c r="D27">
         <v>11.76832898015804</v>
@@ -1764,11 +1764,11 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L27">
-        <v>0.6186813609408208</v>
+        <v>0.6186813609408198</v>
       </c>
     </row>
     <row r="28">
@@ -1781,10 +1781,10 @@
         <v>166.245316958151</v>
       </c>
       <c r="C28">
-        <v>16.19975492297238</v>
+        <v>16.19975492287786</v>
       </c>
       <c r="D28">
-        <v>6.799108680495967</v>
+        <v>6.799108680495966</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1816,11 +1816,11 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L28">
-        <v>0.557558795103043</v>
+        <v>0.5575587951030424</v>
       </c>
     </row>
     <row r="29">
@@ -1833,7 +1833,7 @@
         <v>196.0729103478515</v>
       </c>
       <c r="C29">
-        <v>14.48791787516154</v>
+        <v>14.48791787504966</v>
       </c>
       <c r="D29">
         <v>5.334026961520144</v>
@@ -1868,11 +1868,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L29">
-        <v>0.5205587914980133</v>
+        <v>0.5205587914980127</v>
       </c>
     </row>
     <row r="30">
@@ -1885,7 +1885,7 @@
         <v>171.4096625923578</v>
       </c>
       <c r="C30">
-        <v>9.280533559214104</v>
+        <v>9.280533559173485</v>
       </c>
       <c r="D30">
         <v>3.795550222078931</v>
@@ -1920,11 +1920,11 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L30">
-        <v>0.4540368053339757</v>
+        <v>0.4540368053339753</v>
       </c>
     </row>
     <row r="31">
@@ -1937,7 +1937,7 @@
         <v>172.7457029037434</v>
       </c>
       <c r="C31">
-        <v>9.737202059065217</v>
+        <v>9.737202058996727</v>
       </c>
       <c r="D31">
         <v>3.923832586044121</v>
@@ -1972,11 +1972,11 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L31">
-        <v>0.4596917198808043</v>
+        <v>0.4596917198808037</v>
       </c>
     </row>
     <row r="32">
@@ -1989,7 +1989,7 @@
         <v>162.9452851426436</v>
       </c>
       <c r="C32">
-        <v>9.031848220105012</v>
+        <v>9.031848220070291</v>
       </c>
       <c r="D32">
         <v>3.056358275150453</v>
@@ -2024,11 +2024,11 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L32">
-        <v>0.4426597390903366</v>
+        <v>0.4426597390903362</v>
       </c>
     </row>
     <row r="33">
@@ -2041,7 +2041,7 @@
         <v>139.8163875378402</v>
       </c>
       <c r="C33">
-        <v>5.60404244176926</v>
+        <v>5.604042441800203</v>
       </c>
       <c r="D33">
         <v>1.994028186360197</v>
@@ -2076,11 +2076,11 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L33">
-        <v>0.3569649934518089</v>
+        <v>0.3569649934518094</v>
       </c>
     </row>
     <row r="34">
@@ -2093,7 +2093,7 @@
         <v>188.5144873228797</v>
       </c>
       <c r="C34">
-        <v>9.242768016605847</v>
+        <v>9.242768016589382</v>
       </c>
       <c r="D34">
         <v>2.747801701255165</v>
@@ -2128,11 +2128,11 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L34">
-        <v>0.4369558138562051</v>
+        <v>0.436955813856205</v>
       </c>
     </row>
     <row r="35">
@@ -2145,7 +2145,7 @@
         <v>203.5538874129934</v>
       </c>
       <c r="C35">
-        <v>23.26423380972357</v>
+        <v>23.26423380952637</v>
       </c>
       <c r="D35">
         <v>7.779495897744178</v>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L35">
-        <v>0.6023138524671854</v>
+        <v>0.6023138524671846</v>
       </c>
     </row>
     <row r="36">
@@ -2197,7 +2197,7 @@
         <v>192.809959251855</v>
       </c>
       <c r="C36">
-        <v>16.49350382619656</v>
+        <v>16.49350382608326</v>
       </c>
       <c r="D36">
         <v>5.629434979623464</v>
@@ -2232,11 +2232,11 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L36">
-        <v>0.5466360007035415</v>
+        <v>0.5466360007035409</v>
       </c>
     </row>
     <row r="37">
@@ -2249,7 +2249,7 @@
         <v>188.7630027451523</v>
       </c>
       <c r="C37">
-        <v>27.18031471740919</v>
+        <v>27.18031471722036</v>
       </c>
       <c r="D37">
         <v>11.68841313955507</v>
@@ -2284,11 +2284,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L37">
-        <v>0.6453205844182777</v>
+        <v>0.645320584418277</v>
       </c>
     </row>
     <row r="38">
@@ -2301,7 +2301,7 @@
         <v>207.8628412351452</v>
       </c>
       <c r="C38">
-        <v>22.64992315200752</v>
+        <v>22.64992315172045</v>
       </c>
       <c r="D38">
         <v>6.620301463318893</v>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L38">
-        <v>0.5910636923684134</v>
+        <v>0.5910636923684122</v>
       </c>
     </row>
     <row r="39">
@@ -2353,7 +2353,7 @@
         <v>176.2472218993796</v>
       </c>
       <c r="C39">
-        <v>24.649939598731</v>
+        <v>24.6499395986191</v>
       </c>
       <c r="D39">
         <v>11.12386541305708</v>
@@ -2388,11 +2388,11 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L39">
-        <v>0.6278279543360481</v>
+        <v>0.6278279543360477</v>
       </c>
     </row>
     <row r="40">
@@ -2405,10 +2405,10 @@
         <v>158.2254249104092</v>
       </c>
       <c r="C40">
-        <v>15.30905468006337</v>
+        <v>15.30905467994307</v>
       </c>
       <c r="D40">
-        <v>7.174150209753499</v>
+        <v>7.174150209753498</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2440,11 +2440,11 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L40">
-        <v>0.5517894599110592</v>
+        <v>0.5517894599110585</v>
       </c>
     </row>
     <row r="41">
@@ -2457,7 +2457,7 @@
         <v>194.6863018758687</v>
       </c>
       <c r="C41">
-        <v>16.25808439015838</v>
+        <v>16.25808439000224</v>
       </c>
       <c r="D41">
         <v>7.103893184680203</v>
@@ -2492,11 +2492,11 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L41">
-        <v>0.5400293780395062</v>
+        <v>0.5400293780395053</v>
       </c>
     </row>
     <row r="42">
@@ -2509,10 +2509,10 @@
         <v>231.9009165591444</v>
       </c>
       <c r="C42">
-        <v>13.57676467905953</v>
+        <v>13.5767646788788</v>
       </c>
       <c r="D42">
-        <v>5.911805904435202</v>
+        <v>5.911805904435203</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2544,11 +2544,11 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L42">
-        <v>0.499428393583385</v>
+        <v>0.4994283935833839</v>
       </c>
     </row>
     <row r="43">
@@ -2561,7 +2561,7 @@
         <v>211.9601833180648</v>
       </c>
       <c r="C43">
-        <v>13.62246833795382</v>
+        <v>13.6224683378089</v>
       </c>
       <c r="D43">
         <v>5.552156307216534</v>
@@ -2596,11 +2596,11 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L43">
-        <v>0.5003668644131414</v>
+        <v>0.5003668644131405</v>
       </c>
     </row>
     <row r="44">
@@ -2613,7 +2613,7 @@
         <v>208.6080132992415</v>
       </c>
       <c r="C44">
-        <v>14.47371408257335</v>
+        <v>14.47371408242077</v>
       </c>
       <c r="D44">
         <v>6.632156343580442</v>
@@ -2648,11 +2648,11 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L44">
-        <v>0.5213799170463523</v>
+        <v>0.5213799170463514</v>
       </c>
     </row>
     <row r="45">
@@ -2665,7 +2665,7 @@
         <v>166.3381373658564</v>
       </c>
       <c r="C45">
-        <v>11.2376629879217</v>
+        <v>11.23766298784371</v>
       </c>
       <c r="D45">
         <v>4.792304643056182</v>
@@ -2700,11 +2700,11 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L45">
-        <v>0.4903175900145265</v>
+        <v>0.4903175900145259</v>
       </c>
     </row>
     <row r="46">
@@ -2717,7 +2717,7 @@
         <v>219.8136109036523</v>
       </c>
       <c r="C46">
-        <v>14.96496513338546</v>
+        <v>14.96496513325955</v>
       </c>
       <c r="D46">
         <v>4.953333594449113</v>
@@ -2752,11 +2752,11 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L46">
-        <v>0.5130345470357603</v>
+        <v>0.5130345470357596</v>
       </c>
     </row>
     <row r="47">
@@ -2769,7 +2769,7 @@
         <v>171.8151467901934</v>
       </c>
       <c r="C47">
-        <v>16.43053164288089</v>
+        <v>16.43053164278022</v>
       </c>
       <c r="D47">
         <v>5.307896574623491</v>
@@ -2804,11 +2804,11 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L47">
-        <v>0.5522607035741095</v>
+        <v>0.5522607035741091</v>
       </c>
     </row>
     <row r="48">
@@ -2821,7 +2821,7 @@
         <v>193.4692549125369</v>
       </c>
       <c r="C48">
-        <v>22.56617078525015</v>
+        <v>22.56617078511644</v>
       </c>
       <c r="D48">
         <v>6.980108402587486</v>
@@ -2856,11 +2856,11 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L48">
-        <v>0.6024893766773013</v>
+        <v>0.6024893766773007</v>
       </c>
     </row>
     <row r="49">
@@ -2873,7 +2873,7 @@
         <v>196.4227620293567</v>
       </c>
       <c r="C49">
-        <v>22.1777526712734</v>
+        <v>22.17775267104362</v>
       </c>
       <c r="D49">
         <v>7.75725551422501</v>
@@ -2908,11 +2908,11 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L49">
-        <v>0.5997549040132784</v>
+        <v>0.5997549040132775</v>
       </c>
     </row>
     <row r="50">
@@ -2925,7 +2925,7 @@
         <v>219.6960649699986</v>
       </c>
       <c r="C50">
-        <v>29.53918789398191</v>
+        <v>29.53918789356217</v>
       </c>
       <c r="D50">
         <v>9.56137016104964</v>
@@ -2960,11 +2960,11 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L50">
-        <v>0.6371116577355593</v>
+        <v>0.637111657735558</v>
       </c>
     </row>
     <row r="51">
@@ -2977,7 +2977,7 @@
         <v>184.3804872646296</v>
       </c>
       <c r="C51">
-        <v>19.16794312484886</v>
+        <v>19.16794312468622</v>
       </c>
       <c r="D51">
         <v>8.121162589506682</v>
@@ -3012,11 +3012,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L51">
-        <v>0.5782505509183342</v>
+        <v>0.5782505509183334</v>
       </c>
     </row>
     <row r="52">
@@ -3029,10 +3029,10 @@
         <v>158.5667008143409</v>
       </c>
       <c r="C52">
-        <v>15.84515702373076</v>
+        <v>15.84515702362319</v>
       </c>
       <c r="D52">
-        <v>6.964883519432421</v>
+        <v>6.964883519432422</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3064,11 +3064,11 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L52">
-        <v>0.5555556925319877</v>
+        <v>0.5555556925319871</v>
       </c>
     </row>
     <row r="53">
@@ -3081,10 +3081,10 @@
         <v>185.1785561718462</v>
       </c>
       <c r="C53">
-        <v>12.4857041966522</v>
+        <v>12.48570419651048</v>
       </c>
       <c r="D53">
-        <v>5.08788411488034</v>
+        <v>5.087884114880339</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3116,11 +3116,11 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L53">
-        <v>0.4939631154466522</v>
+        <v>0.4939631154466511</v>
       </c>
     </row>
     <row r="54">
@@ -3133,7 +3133,7 @@
         <v>200.9826507778041</v>
       </c>
       <c r="C54">
-        <v>14.42402904523744</v>
+        <v>14.42402904501868</v>
       </c>
       <c r="D54">
         <v>6.030215873301308</v>
@@ -3168,11 +3168,11 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L54">
-        <v>0.5190024651042023</v>
+        <v>0.519002465104201</v>
       </c>
     </row>
     <row r="55">
@@ -3185,7 +3185,7 @@
         <v>160.0620118628187</v>
       </c>
       <c r="C55">
-        <v>12.69462273107012</v>
+        <v>12.69462273095296</v>
       </c>
       <c r="D55">
         <v>5.571833384961344</v>
@@ -3220,11 +3220,11 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L55">
-        <v>0.5114884850471925</v>
+        <v>0.5114884850471915</v>
       </c>
     </row>
     <row r="56">
@@ -3237,7 +3237,7 @@
         <v>191.1120036678812</v>
       </c>
       <c r="C56">
-        <v>12.51631152768799</v>
+        <v>12.5163115276061</v>
       </c>
       <c r="D56">
         <v>4.943934951870426</v>
@@ -3272,11 +3272,11 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L56">
-        <v>0.500593253155368</v>
+        <v>0.5005932531553674</v>
       </c>
     </row>
     <row r="57">
@@ -3289,7 +3289,7 @@
         <v>165.6401360233273</v>
       </c>
       <c r="C57">
-        <v>10.84665040896492</v>
+        <v>10.8466504088692</v>
       </c>
       <c r="D57">
         <v>3.278948507119317</v>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L57">
-        <v>0.4796329257343803</v>
+        <v>0.4796329257343794</v>
       </c>
     </row>
     <row r="58">
@@ -3341,7 +3341,7 @@
         <v>125.5506754544686</v>
       </c>
       <c r="C58">
-        <v>7.736029855554014</v>
+        <v>7.736029855561554</v>
       </c>
       <c r="D58">
         <v>2.402174855896859</v>
@@ -3376,11 +3376,11 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L58">
-        <v>0.4288180326196895</v>
+        <v>0.4288180326196896</v>
       </c>
     </row>
     <row r="59">
@@ -3393,7 +3393,7 @@
         <v>195.3102727591024</v>
       </c>
       <c r="C59">
-        <v>24.01363422840571</v>
+        <v>24.0136342282502</v>
       </c>
       <c r="D59">
         <v>8.461142245614795</v>
@@ -3428,11 +3428,11 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L59">
-        <v>0.6098247872916732</v>
+        <v>0.6098247872916727</v>
       </c>
     </row>
     <row r="60">
@@ -3445,7 +3445,7 @@
         <v>181.6078027595132</v>
       </c>
       <c r="C60">
-        <v>16.69249122387737</v>
+        <v>16.69249122383209</v>
       </c>
       <c r="D60">
         <v>5.276810365973987</v>
@@ -3480,11 +3480,11 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L60">
-        <v>0.5491559303407335</v>
+        <v>0.5491559303407333</v>
       </c>
     </row>
     <row r="61">
@@ -3497,10 +3497,10 @@
         <v>189.3202543528123</v>
       </c>
       <c r="C61">
-        <v>15.90201509975439</v>
+        <v>15.90201509957256</v>
       </c>
       <c r="D61">
-        <v>5.866425454621967</v>
+        <v>5.866425454621966</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3532,11 +3532,11 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L61">
-        <v>0.5370365884596643</v>
+        <v>0.5370365884596633</v>
       </c>
     </row>
     <row r="62">
@@ -3549,10 +3549,10 @@
         <v>189.745761508964</v>
       </c>
       <c r="C62">
-        <v>24.76417244959991</v>
+        <v>24.76417244946202</v>
       </c>
       <c r="D62">
-        <v>7.223223574649359</v>
+        <v>7.223223574649357</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L62">
-        <v>0.6145520596409487</v>
+        <v>0.6145520596409483</v>
       </c>
     </row>
     <row r="63">
@@ -3601,7 +3601,7 @@
         <v>166.9709329044838</v>
       </c>
       <c r="C63">
-        <v>22.11125724409507</v>
+        <v>22.1112572439501</v>
       </c>
       <c r="D63">
         <v>10.95004533497483</v>
@@ -3636,11 +3636,11 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L63">
-        <v>0.6158798452587715</v>
+        <v>0.6158798452587708</v>
       </c>
     </row>
     <row r="64">
@@ -3653,7 +3653,7 @@
         <v>149.4280359821962</v>
       </c>
       <c r="C64">
-        <v>14.99568035752832</v>
+        <v>14.99568035747162</v>
       </c>
       <c r="D64">
         <v>6.242554679179148</v>
@@ -3688,11 +3688,11 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L64">
-        <v>0.5485379421588698</v>
+        <v>0.5485379421588694</v>
       </c>
     </row>
     <row r="65">
@@ -3705,7 +3705,7 @@
         <v>198.5472285709252</v>
       </c>
       <c r="C65">
-        <v>15.76902062962877</v>
+        <v>15.76902062953429</v>
       </c>
       <c r="D65">
         <v>6.162600521918586</v>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L65">
-        <v>0.5346498529061499</v>
+        <v>0.5346498529061493</v>
       </c>
     </row>
     <row r="66">
@@ -3757,7 +3757,7 @@
         <v>214.3994679964487</v>
       </c>
       <c r="C66">
-        <v>13.01171173109309</v>
+        <v>13.01171173090982</v>
       </c>
       <c r="D66">
         <v>5.077765124890741</v>
@@ -3792,11 +3792,11 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L66">
-        <v>0.4930907269466769</v>
+        <v>0.4930907269466757</v>
       </c>
     </row>
     <row r="67">
@@ -3809,7 +3809,7 @@
         <v>176.0729103479659</v>
       </c>
       <c r="C67">
-        <v>9.598678413459293</v>
+        <v>9.598678413350999</v>
       </c>
       <c r="D67">
         <v>4.237324812372143</v>
@@ -3844,11 +3844,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L67">
-        <v>0.4515812742041981</v>
+        <v>0.4515812742041971</v>
       </c>
     </row>
     <row r="68">
@@ -3861,7 +3861,7 @@
         <v>196.8990302310579</v>
       </c>
       <c r="C68">
-        <v>11.50075218130802</v>
+        <v>11.5007521812325</v>
       </c>
       <c r="D68">
         <v>4.80157031092933</v>
@@ -3896,11 +3896,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L68">
-        <v>0.4818003482674508</v>
+        <v>0.4818003482674503</v>
       </c>
     </row>
     <row r="69">
@@ -3913,7 +3913,7 @@
         <v>184.5974835545649</v>
       </c>
       <c r="C69">
-        <v>9.659492326814478</v>
+        <v>9.659492326775162</v>
       </c>
       <c r="D69">
         <v>3.026730734128692</v>
@@ -3948,11 +3948,11 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L69">
-        <v>0.4457080138026808</v>
+        <v>0.4457080138026804</v>
       </c>
     </row>
     <row r="70">
@@ -3965,7 +3965,7 @@
         <v>247.8200614659254</v>
       </c>
       <c r="C70">
-        <v>25.70229907561457</v>
+        <v>25.70229907524326</v>
       </c>
       <c r="D70">
         <v>8.710622377113364</v>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L70">
-        <v>0.600114422203168</v>
+        <v>0.6001144222031668</v>
       </c>
     </row>
     <row r="71">
@@ -4017,7 +4017,7 @@
         <v>171.4953907683303</v>
       </c>
       <c r="C71">
-        <v>27.74165982333505</v>
+        <v>27.74165982331311</v>
       </c>
       <c r="D71">
         <v>11.65879618037576</v>
@@ -4052,11 +4052,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L71">
-        <v>0.6488196479478971</v>
+        <v>0.648819647947897</v>
       </c>
     </row>
     <row r="72">
@@ -4069,7 +4069,7 @@
         <v>201.8595796473933</v>
       </c>
       <c r="C72">
-        <v>28.23460432113025</v>
+        <v>28.2346043209633</v>
       </c>
       <c r="D72">
         <v>12.17120571228459</v>
@@ -4104,11 +4104,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L72">
-        <v>0.6409475475334837</v>
+        <v>0.6409475475334833</v>
       </c>
     </row>
     <row r="73">
@@ -4121,7 +4121,7 @@
         <v>193.6376324530611</v>
       </c>
       <c r="C73">
-        <v>22.59334241769687</v>
+        <v>22.59334241754832</v>
       </c>
       <c r="D73">
         <v>8.177851458383339</v>
@@ -4156,11 +4156,11 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L73">
-        <v>0.6033805810416293</v>
+        <v>0.6033805810416286</v>
       </c>
     </row>
     <row r="74">
@@ -4173,7 +4173,7 @@
         <v>234.0324485523586</v>
       </c>
       <c r="C74">
-        <v>35.40077466866592</v>
+        <v>35.40077466832339</v>
       </c>
       <c r="D74">
         <v>10.16780431678469</v>
@@ -4208,11 +4208,11 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L74">
-        <v>0.6632425672290043</v>
+        <v>0.6632425672290034</v>
       </c>
     </row>
     <row r="75">
@@ -4225,7 +4225,7 @@
         <v>157.7751526272703</v>
       </c>
       <c r="C75">
-        <v>18.07555543196466</v>
+        <v>18.07555543180019</v>
       </c>
       <c r="D75">
         <v>8.829067419164883</v>
@@ -4260,11 +4260,11 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L75">
-        <v>0.5863533281527417</v>
+        <v>0.5863533281527409</v>
       </c>
     </row>
     <row r="76">
@@ -4277,10 +4277,10 @@
         <v>165.9354179607328</v>
       </c>
       <c r="C76">
-        <v>17.19332100651904</v>
+        <v>17.19332100639645</v>
       </c>
       <c r="D76">
-        <v>7.396869769547222</v>
+        <v>7.396869769547224</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4312,11 +4312,11 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L76">
-        <v>0.5711246126678199</v>
+        <v>0.5711246126678193</v>
       </c>
     </row>
     <row r="77">
@@ -4329,7 +4329,7 @@
         <v>170.2511034768678</v>
       </c>
       <c r="C77">
-        <v>8.873533395026957</v>
+        <v>8.873533394997988</v>
       </c>
       <c r="D77">
         <v>3.804560699889525</v>
@@ -4364,11 +4364,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L77">
-        <v>0.438985931766839</v>
+        <v>0.4389859317668388</v>
       </c>
     </row>
     <row r="78">
@@ -4381,7 +4381,7 @@
         <v>215.2150061877862</v>
       </c>
       <c r="C78">
-        <v>11.26474998633673</v>
+        <v>11.26474998627672</v>
       </c>
       <c r="D78">
         <v>4.502998401551125</v>
@@ -4416,11 +4416,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L78">
-        <v>0.4710406094164063</v>
+        <v>0.4710406094164059</v>
       </c>
     </row>
     <row r="79">
@@ -4433,7 +4433,7 @@
         <v>159.0821254834989</v>
       </c>
       <c r="C79">
-        <v>10.52951361400509</v>
+        <v>10.52951361397629</v>
       </c>
       <c r="D79">
         <v>4.344721154598318</v>
@@ -4468,11 +4468,11 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L79">
-        <v>0.4801028438508791</v>
+        <v>0.4801028438508788</v>
       </c>
     </row>
     <row r="80">
@@ -4485,7 +4485,7 @@
         <v>194.1150924420944</v>
       </c>
       <c r="C80">
-        <v>8.874334071964153</v>
+        <v>8.874334071945732</v>
       </c>
       <c r="D80">
         <v>3.058686502257086</v>
@@ -4520,11 +4520,11 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L80">
-        <v>0.4338111792715361</v>
+        <v>0.433811179271536</v>
       </c>
     </row>
     <row r="81">
@@ -4537,7 +4537,7 @@
         <v>112.6037490655579</v>
       </c>
       <c r="C81">
-        <v>3.842492514890251</v>
+        <v>3.842492514901369</v>
       </c>
       <c r="D81">
         <v>1.77966874844459</v>
@@ -4572,11 +4572,11 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L81">
-        <v>0.2968621846164913</v>
+        <v>0.2968621846164915</v>
       </c>
     </row>
     <row r="82">
@@ -4589,7 +4589,7 @@
         <v>165.7660367903323</v>
       </c>
       <c r="C82">
-        <v>8.110264776864744</v>
+        <v>8.110264776880552</v>
       </c>
       <c r="D82">
         <v>3.006804277040865</v>
@@ -4624,11 +4624,11 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L82">
-        <v>0.4202820108420358</v>
+        <v>0.420282010842036</v>
       </c>
     </row>
     <row r="83">
@@ -4641,7 +4641,7 @@
         <v>183.4642187379179</v>
       </c>
       <c r="C83">
-        <v>7.727502295309934</v>
+        <v>7.727502295325446</v>
       </c>
       <c r="D83">
         <v>2.65298970978409</v>
@@ -4676,11 +4676,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L83">
-        <v>0.408539915987136</v>
+        <v>0.4085399159871361</v>
       </c>
     </row>
     <row r="84">
@@ -4693,7 +4693,7 @@
         <v>154.9703176603993</v>
       </c>
       <c r="C84">
-        <v>13.57622978714607</v>
+        <v>13.5762297871061</v>
       </c>
       <c r="D84">
         <v>5.733577311251495</v>
@@ -4728,11 +4728,11 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L84">
-        <v>0.5306066834256906</v>
+        <v>0.5306066834256904</v>
       </c>
     </row>
     <row r="85">
@@ -4745,7 +4745,7 @@
         <v>148.8668687692905</v>
       </c>
       <c r="C85">
-        <v>5.899152762833005</v>
+        <v>5.899152762867486</v>
       </c>
       <c r="D85">
         <v>2.262979896936681</v>
@@ -4780,11 +4780,11 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L85">
-        <v>0.3632905453733655</v>
+        <v>0.3632905453733661</v>
       </c>
     </row>
     <row r="86">
@@ -4797,7 +4797,7 @@
         <v>173.2911650608579</v>
       </c>
       <c r="C86">
-        <v>13.35171175391495</v>
+        <v>13.35171175383788</v>
       </c>
       <c r="D86">
         <v>4.211478106700472</v>
@@ -4832,11 +4832,11 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L86">
-        <v>0.515118668845792</v>
+        <v>0.5151186688457915</v>
       </c>
     </row>
     <row r="87">
@@ -4849,7 +4849,7 @@
         <v>215.9020708271041</v>
       </c>
       <c r="C87">
-        <v>34.80840873622653</v>
+        <v>34.80840873602052</v>
       </c>
       <c r="D87">
         <v>14.44914663723669</v>
@@ -4884,11 +4884,11 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L87">
-        <v>0.6740474833916108</v>
+        <v>0.6740474833916102</v>
       </c>
     </row>
     <row r="88">
@@ -4901,7 +4901,7 @@
         <v>148.4010543667335</v>
       </c>
       <c r="C88">
-        <v>14.79951637344612</v>
+        <v>14.79951637328693</v>
       </c>
       <c r="D88">
         <v>6.944738507408386</v>
@@ -4936,11 +4936,11 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L88">
-        <v>0.5450396231170425</v>
+        <v>0.5450396231170413</v>
       </c>
     </row>
     <row r="89">
@@ -4953,7 +4953,7 @@
         <v>215.4592028758406</v>
       </c>
       <c r="C89">
-        <v>17.35106353535156</v>
+        <v>17.35106353509733</v>
       </c>
       <c r="D89">
         <v>7.374365245597762</v>
@@ -4988,11 +4988,11 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L89">
-        <v>0.5440831941147939</v>
+        <v>0.5440831941147926</v>
       </c>
     </row>
     <row r="90">
@@ -5005,7 +5005,7 @@
         <v>220.8642686239397</v>
       </c>
       <c r="C90">
-        <v>18.09456293219726</v>
+        <v>18.09456293201253</v>
       </c>
       <c r="D90">
         <v>7.475815286830866</v>
@@ -5040,11 +5040,11 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L90">
-        <v>0.5537625157197451</v>
+        <v>0.5537625157197443</v>
       </c>
     </row>
     <row r="91">
@@ -5057,7 +5057,7 @@
         <v>209.7046033827935</v>
       </c>
       <c r="C91">
-        <v>13.02044400149576</v>
+        <v>13.02044400134255</v>
       </c>
       <c r="D91">
         <v>5.48962086305568</v>
@@ -5092,11 +5092,11 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L91">
-        <v>0.4977210769112369</v>
+        <v>0.4977210769112359</v>
       </c>
     </row>
     <row r="92">
@@ -5109,7 +5109,7 @@
         <v>168.9452851425531</v>
       </c>
       <c r="C92">
-        <v>14.01271458112919</v>
+        <v>14.01271458103674</v>
       </c>
       <c r="D92">
         <v>6.547855720071998</v>
@@ -5144,11 +5144,11 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L92">
-        <v>0.5269031579673848</v>
+        <v>0.5269031579673842</v>
       </c>
     </row>
     <row r="93">
@@ -5161,7 +5161,7 @@
         <v>130.4993753126495</v>
       </c>
       <c r="C93">
-        <v>6.931223964007798</v>
+        <v>6.931223964032418</v>
       </c>
       <c r="D93">
         <v>2.464457655182839</v>
@@ -5196,11 +5196,11 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L93">
-        <v>0.4055932555472194</v>
+        <v>0.4055932555472198</v>
       </c>
     </row>
     <row r="94">
@@ -5213,7 +5213,7 @@
         <v>216.9371667325194</v>
       </c>
       <c r="C94">
-        <v>20.60137192302446</v>
+        <v>20.60137192286644</v>
       </c>
       <c r="D94">
         <v>6.368073723853561</v>
@@ -5248,11 +5248,11 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L94">
-        <v>0.5746233747291141</v>
+        <v>0.5746233747291133</v>
       </c>
     </row>
     <row r="95">
@@ -5265,10 +5265,10 @@
         <v>180.8163875376384</v>
       </c>
       <c r="C95">
-        <v>22.78966851783627</v>
+        <v>22.78966851768985</v>
       </c>
       <c r="D95">
-        <v>9.237256715288918</v>
+        <v>9.23725671528892</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -5300,11 +5300,11 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L95">
-        <v>0.6116122773148516</v>
+        <v>0.6116122773148509</v>
       </c>
     </row>
     <row r="96">
@@ -5317,7 +5317,7 @@
         <v>163.3896760573143</v>
       </c>
       <c r="C96">
-        <v>20.13570544218131</v>
+        <v>20.13570544199492</v>
       </c>
       <c r="D96">
         <v>8.002196810965042</v>
@@ -5352,11 +5352,11 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L96">
-        <v>0.5972527867838755</v>
+        <v>0.5972527867838746</v>
       </c>
     </row>
     <row r="97">
@@ -5369,7 +5369,7 @@
         <v>157.103252583904</v>
       </c>
       <c r="C97">
-        <v>12.81272583874174</v>
+        <v>12.81272583868682</v>
       </c>
       <c r="D97">
         <v>3.970458638779251</v>
@@ -5404,11 +5404,11 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L97">
-        <v>0.5105502250099243</v>
+        <v>0.5105502250099239</v>
       </c>
     </row>
     <row r="98">
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="B98">
-        <v>219.0060780308452</v>
+        <v>219.0060780308451</v>
       </c>
       <c r="C98">
-        <v>22.08161920569747</v>
+        <v>22.08161920548325</v>
       </c>
       <c r="D98">
         <v>6.097590313947746</v>
@@ -5456,11 +5456,11 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L98">
-        <v>0.5843608615154695</v>
+        <v>0.5843608615154687</v>
       </c>
     </row>
     <row r="99">
@@ -5473,7 +5473,7 @@
         <v>201.9649052768491</v>
       </c>
       <c r="C99">
-        <v>29.8927396214327</v>
+        <v>29.89273962113486</v>
       </c>
       <c r="D99">
         <v>12.59855027085969</v>
@@ -5508,11 +5508,11 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L99">
-        <v>0.6478329159862997</v>
+        <v>0.6478329159862987</v>
       </c>
     </row>
     <row r="100">
@@ -5525,10 +5525,10 @@
         <v>174.4539554483351</v>
       </c>
       <c r="C100">
-        <v>17.04070024489404</v>
+        <v>17.04070024474852</v>
       </c>
       <c r="D100">
-        <v>7.336072021229627</v>
+        <v>7.336072021229626</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5560,11 +5560,11 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L100">
-        <v>0.5601196379287862</v>
+        <v>0.5601196379287854</v>
       </c>
     </row>
     <row r="101">
@@ -5577,10 +5577,10 @@
         <v>228.1919499218571</v>
       </c>
       <c r="C101">
-        <v>19.08217524985611</v>
+        <v>19.08217524961652</v>
       </c>
       <c r="D101">
-        <v>7.857436562278616</v>
+        <v>7.857436562278614</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5612,11 +5612,11 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L101">
-        <v>0.5549508298735278</v>
+        <v>0.5549508298735268</v>
       </c>
     </row>
     <row r="102">
@@ -5629,7 +5629,7 @@
         <v>229.4047294420132</v>
       </c>
       <c r="C102">
-        <v>15.77596695701413</v>
+        <v>15.77596695677936</v>
       </c>
       <c r="D102">
         <v>6.747420558707022</v>
@@ -5664,11 +5664,11 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L102">
-        <v>0.5261717194799804</v>
+        <v>0.5261717194799792</v>
       </c>
     </row>
     <row r="103">
@@ -5681,7 +5681,7 @@
         <v>191.006078031005</v>
       </c>
       <c r="C103">
-        <v>12.38846533473673</v>
+        <v>12.38846533462951</v>
       </c>
       <c r="D103">
         <v>4.126941562518184</v>
@@ -5716,11 +5716,11 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L103">
-        <v>0.4894317411793585</v>
+        <v>0.4894317411793577</v>
       </c>
     </row>
     <row r="104">
@@ -5733,10 +5733,10 @@
         <v>204.4591161016953</v>
       </c>
       <c r="C104">
-        <v>16.09619452374307</v>
+        <v>16.09619452352344</v>
       </c>
       <c r="D104">
-        <v>7.519719608253571</v>
+        <v>7.519719608253573</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5768,11 +5768,11 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L104">
-        <v>0.5410327197252387</v>
+        <v>0.5410327197252375</v>
       </c>
     </row>
     <row r="105">
@@ -5785,7 +5785,7 @@
         <v>218.9601833179724</v>
       </c>
       <c r="C105">
-        <v>14.99112518837667</v>
+        <v>14.9911251882315</v>
       </c>
       <c r="D105">
         <v>5.044514826389698</v>
@@ -5820,11 +5820,11 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L105">
-        <v>0.5149520264465918</v>
+        <v>0.5149520264465909</v>
       </c>
     </row>
     <row r="106">
@@ -5837,7 +5837,7 @@
         <v>252.7053408942595</v>
       </c>
       <c r="C106">
-        <v>22.28935031773417</v>
+        <v>22.28935031732145</v>
       </c>
       <c r="D106">
         <v>6.6748656321052</v>
@@ -5872,11 +5872,11 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L106">
-        <v>0.5716700548280693</v>
+        <v>0.5716700548280678</v>
       </c>
     </row>
     <row r="107">
@@ -5889,7 +5889,7 @@
         <v>220.3875253441815</v>
       </c>
       <c r="C107">
-        <v>25.88931111622008</v>
+        <v>25.88931111594119</v>
       </c>
       <c r="D107">
         <v>8.62250305018671</v>
@@ -5924,11 +5924,11 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L107">
-        <v>0.6139605277399407</v>
+        <v>0.6139605277399397</v>
       </c>
     </row>
     <row r="108">
@@ -5941,7 +5941,7 @@
         <v>229.202673434824</v>
       </c>
       <c r="C108">
-        <v>24.84296257284888</v>
+        <v>24.8429625727017</v>
       </c>
       <c r="D108">
         <v>7.747265802416307</v>
@@ -5976,11 +5976,11 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L108">
-        <v>0.6031525378234293</v>
+        <v>0.6031525378234287</v>
       </c>
     </row>
     <row r="109">
@@ -5993,7 +5993,7 @@
         <v>203.5352122265763</v>
       </c>
       <c r="C109">
-        <v>31.6372083318061</v>
+        <v>31.63720833162678</v>
       </c>
       <c r="D109">
         <v>11.96165663833632</v>
@@ -6028,11 +6028,11 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L109">
-        <v>0.6573353650843216</v>
+        <v>0.657335365084321</v>
       </c>
     </row>
     <row r="110">
@@ -6045,7 +6045,7 @@
         <v>220.1082019945547</v>
       </c>
       <c r="C110">
-        <v>33.21809724456325</v>
+        <v>33.21809724401837</v>
       </c>
       <c r="D110">
         <v>10.41946585369338</v>
@@ -6080,11 +6080,11 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L110">
-        <v>0.6544353388489392</v>
+        <v>0.6544353388489377</v>
       </c>
     </row>
     <row r="111">
@@ -6097,7 +6097,7 @@
         <v>200.4162300977989</v>
       </c>
       <c r="C111">
-        <v>25.19326652238661</v>
+        <v>25.19326652211821</v>
       </c>
       <c r="D111">
         <v>11.89107862250947</v>
@@ -6132,11 +6132,11 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L111">
-        <v>0.6223485889066936</v>
+        <v>0.6223485889066926</v>
       </c>
     </row>
     <row r="112">
@@ -6149,7 +6149,7 @@
         <v>173.2911650608579</v>
       </c>
       <c r="C112">
-        <v>18.9628244326532</v>
+        <v>18.96282443253946</v>
       </c>
       <c r="D112">
         <v>8.617738618741008</v>
@@ -6184,11 +6184,11 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L112">
-        <v>0.5851401873968604</v>
+        <v>0.5851401873968598</v>
       </c>
     </row>
     <row r="113">
@@ -6201,7 +6201,7 @@
         <v>192.4435348227777</v>
       </c>
       <c r="C113">
-        <v>12.65698589003775</v>
+        <v>12.65698588990031</v>
       </c>
       <c r="D113">
         <v>5.062122748568061</v>
@@ -6236,11 +6236,11 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L113">
-        <v>0.4959502256547133</v>
+        <v>0.4959502256547124</v>
       </c>
     </row>
     <row r="114">
@@ -6253,7 +6253,7 @@
         <v>173.7080571113963</v>
       </c>
       <c r="C114">
-        <v>10.62299021629742</v>
+        <v>10.6229902161708</v>
       </c>
       <c r="D114">
         <v>4.188642328954648</v>
@@ -6288,11 +6288,11 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L114">
-        <v>0.4726304643321373</v>
+        <v>0.4726304643321362</v>
       </c>
     </row>
     <row r="115">
@@ -6305,7 +6305,7 @@
         <v>208.4199095722482</v>
       </c>
       <c r="C115">
-        <v>15.64846990271258</v>
+        <v>15.6484699025154</v>
       </c>
       <c r="D115">
         <v>7.08511508777777</v>
@@ -6340,11 +6340,11 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L115">
-        <v>0.5294006318333221</v>
+        <v>0.529400631833321</v>
       </c>
     </row>
     <row r="116">
@@ -6357,7 +6357,7 @@
         <v>164.803639730977</v>
       </c>
       <c r="C116">
-        <v>6.524793046446116</v>
+        <v>6.524793046464914</v>
       </c>
       <c r="D116">
         <v>2.342479846945592</v>
@@ -6392,11 +6392,11 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L116">
-        <v>0.3844073795229101</v>
+        <v>0.3844073795229103</v>
       </c>
     </row>
     <row r="117">
@@ -6409,7 +6409,7 @@
         <v>147.2855508159759</v>
       </c>
       <c r="C117">
-        <v>4.801511846629674</v>
+        <v>4.801511846640173</v>
       </c>
       <c r="D117">
         <v>1.944205366223724</v>
@@ -6444,11 +6444,11 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L117">
-        <v>0.3257824216079888</v>
+        <v>0.3257824216079889</v>
       </c>
     </row>
     <row r="118">
@@ -6461,7 +6461,7 @@
         <v>210.07084561772</v>
       </c>
       <c r="C118">
-        <v>9.050415348211891</v>
+        <v>9.050415348152423</v>
       </c>
       <c r="D118">
         <v>3.106424528562902</v>
@@ -6496,11 +6496,11 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L118">
-        <v>0.4293179901273628</v>
+        <v>0.4293179901273623</v>
       </c>
     </row>
     <row r="119">
@@ -6513,7 +6513,7 @@
         <v>229.8476247220112</v>
       </c>
       <c r="C119">
-        <v>18.97948645445179</v>
+        <v>18.97948645424614</v>
       </c>
       <c r="D119">
         <v>6.013399764184904</v>
@@ -6548,11 +6548,11 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L119">
-        <v>0.5533723739560078</v>
+        <v>0.5533723739560069</v>
       </c>
     </row>
     <row r="120">
@@ -6565,7 +6565,7 @@
         <v>187.5547721100235</v>
       </c>
       <c r="C120">
-        <v>20.50306867916683</v>
+        <v>20.50306867900483</v>
       </c>
       <c r="D120">
         <v>7.822349949350503</v>
@@ -6600,11 +6600,11 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L120">
-        <v>0.590753917469766</v>
+        <v>0.5907539174697652</v>
       </c>
     </row>
     <row r="121">
@@ -6617,7 +6617,7 @@
         <v>163.1562706531925</v>
       </c>
       <c r="C121">
-        <v>10.00662392233429</v>
+        <v>10.00662392228674</v>
       </c>
       <c r="D121">
         <v>3.795658847738529</v>
@@ -6652,11 +6652,11 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L121">
-        <v>0.4647123664145911</v>
+        <v>0.4647123664145906</v>
       </c>
     </row>
     <row r="122">
@@ -6669,7 +6669,7 @@
         <v>188.9941362740369</v>
       </c>
       <c r="C122">
-        <v>34.52398753034039</v>
+        <v>34.52398753006663</v>
       </c>
       <c r="D122">
         <v>12.98043786476383</v>
@@ -6704,11 +6704,11 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L122">
-        <v>0.6776997292446245</v>
+        <v>0.6776997292446237</v>
       </c>
     </row>
     <row r="123">
@@ -6721,7 +6721,7 @@
         <v>186.505487813775</v>
       </c>
       <c r="C123">
-        <v>24.88980205197186</v>
+        <v>24.88980205180645</v>
       </c>
       <c r="D123">
         <v>12.14570558709302</v>
@@ -6756,11 +6756,11 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L123">
-        <v>0.6280763123580508</v>
+        <v>0.6280763123580503</v>
       </c>
     </row>
     <row r="124">
@@ -6773,7 +6773,7 @@
         <v>224.5086881603042</v>
       </c>
       <c r="C124">
-        <v>22.28063492295923</v>
+        <v>22.28063492268454</v>
       </c>
       <c r="D124">
         <v>8.657472980534218</v>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L124">
-        <v>0.5859769429450046</v>
+        <v>0.5859769429450035</v>
       </c>
     </row>
     <row r="125">
@@ -6825,7 +6825,7 @@
         <v>221.2049159254288</v>
       </c>
       <c r="C125">
-        <v>14.00342808343436</v>
+        <v>14.00342808331232</v>
       </c>
       <c r="D125">
         <v>5.030587811121229</v>
@@ -6860,11 +6860,11 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L125">
-        <v>0.5061149227007219</v>
+        <v>0.5061149227007212</v>
       </c>
     </row>
     <row r="126">
@@ -6877,7 +6877,7 @@
         <v>227.4023841352206</v>
       </c>
       <c r="C126">
-        <v>15.36907812107285</v>
+        <v>15.36907812087944</v>
       </c>
       <c r="D126">
         <v>5.970727511564269</v>
@@ -6912,11 +6912,11 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L126">
-        <v>0.5256515076497057</v>
+        <v>0.5256515076497047</v>
       </c>
     </row>
     <row r="127">
@@ -6929,7 +6929,7 @@
         <v>185.7097731689578</v>
       </c>
       <c r="C127">
-        <v>10.59818444114821</v>
+        <v>10.59818444109046</v>
       </c>
       <c r="D127">
         <v>4.023022018820057</v>
@@ -6964,11 +6964,11 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L127">
-        <v>0.4713255918807683</v>
+        <v>0.4713255918807678</v>
       </c>
     </row>
     <row r="128">
@@ -6981,7 +6981,7 @@
         <v>174.3112534664543</v>
       </c>
       <c r="C128">
-        <v>16.5095384233846</v>
+        <v>16.50953842326964</v>
       </c>
       <c r="D128">
         <v>5.866772119658079</v>
@@ -7016,11 +7016,11 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L128">
-        <v>0.5628082885375849</v>
+        <v>0.5628082885375844</v>
       </c>
     </row>
     <row r="129">
@@ -7033,7 +7033,7 @@
         <v>169.7815196241994</v>
       </c>
       <c r="C129">
-        <v>7.06269428584442</v>
+        <v>7.062694285872512</v>
       </c>
       <c r="D129">
         <v>2.310556106990771</v>
@@ -7068,11 +7068,11 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L129">
-        <v>0.3917585203377861</v>
+        <v>0.3917585203377865</v>
       </c>
     </row>
     <row r="130">
@@ -7082,10 +7082,10 @@
         </is>
       </c>
       <c r="B130">
-        <v>168.5488954021792</v>
+        <v>168.5488954021791</v>
       </c>
       <c r="C130">
-        <v>6.451909397062702</v>
+        <v>6.451909397094241</v>
       </c>
       <c r="D130">
         <v>2.170281308849779</v>
@@ -7120,11 +7120,11 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L130">
-        <v>0.3730290259398864</v>
+        <v>0.3730290259398868</v>
       </c>
     </row>
     <row r="131">
@@ -7137,7 +7137,7 @@
         <v>179.8287023699743</v>
       </c>
       <c r="C131">
-        <v>9.905758514200741</v>
+        <v>9.905758514200752</v>
       </c>
       <c r="D131">
         <v>3.048943694238645</v>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L131">
@@ -7186,10 +7186,10 @@
         </is>
       </c>
       <c r="B132">
-        <v>186.8091263603823</v>
+        <v>186.8091263603822</v>
       </c>
       <c r="C132">
-        <v>12.02174433574469</v>
+        <v>12.02174433562042</v>
       </c>
       <c r="D132">
         <v>4.112391578866855</v>
@@ -7224,11 +7224,11 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L132">
-        <v>0.4895223207233672</v>
+        <v>0.4895223207233663</v>
       </c>
     </row>
     <row r="133">
@@ -7241,7 +7241,7 @@
         <v>177.9906645167666</v>
       </c>
       <c r="C133">
-        <v>16.68866595636919</v>
+        <v>16.68866595622612</v>
       </c>
       <c r="D133">
         <v>7.064510888996639</v>
@@ -7276,11 +7276,11 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L133">
-        <v>0.5625837449758484</v>
+        <v>0.5625837449758477</v>
       </c>
     </row>
     <row r="134">
@@ -7293,7 +7293,7 @@
         <v>213.3741927479351</v>
       </c>
       <c r="C134">
-        <v>17.60461999422047</v>
+        <v>17.60461999399482</v>
       </c>
       <c r="D134">
         <v>4.639554248363098</v>
@@ -7328,11 +7328,11 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L134">
-        <v>0.5425235032103451</v>
+        <v>0.5425235032103439</v>
       </c>
     </row>
     <row r="135">
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="B135">
-        <v>202.8099592517385</v>
+        <v>202.8099592517384</v>
       </c>
       <c r="C135">
-        <v>24.11191178680572</v>
+        <v>24.11191178653915</v>
       </c>
       <c r="D135">
         <v>9.938752374492763</v>
@@ -7380,11 +7380,11 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L135">
-        <v>0.6138256829033344</v>
+        <v>0.6138256829033334</v>
       </c>
     </row>
     <row r="136">
@@ -7397,7 +7397,7 @@
         <v>201.2855508158997</v>
       </c>
       <c r="C136">
-        <v>21.70662049223571</v>
+        <v>21.70662049207985</v>
       </c>
       <c r="D136">
         <v>8.748051735735134</v>
@@ -7432,11 +7432,11 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L136">
-        <v>0.5941704362229567</v>
+        <v>0.5941704362229562</v>
       </c>
     </row>
     <row r="137">
@@ -7449,7 +7449,7 @@
         <v>198.1795209555532</v>
       </c>
       <c r="C137">
-        <v>16.34864956127977</v>
+        <v>16.34864956110232</v>
       </c>
       <c r="D137">
         <v>6.524483681784385</v>
@@ -7484,11 +7484,11 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L137">
-        <v>0.5416760960313625</v>
+        <v>0.5416760960313615</v>
       </c>
     </row>
     <row r="138">
@@ -7501,7 +7501,7 @@
         <v>216.2917694121395</v>
       </c>
       <c r="C138">
-        <v>14.71984987916211</v>
+        <v>14.71984987895764</v>
       </c>
       <c r="D138">
         <v>6.489105379727074</v>
@@ -7536,11 +7536,11 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L138">
-        <v>0.516334743444555</v>
+        <v>0.5163347434445538</v>
       </c>
     </row>
     <row r="139">
@@ -7553,7 +7553,7 @@
         <v>192.8584085187756</v>
       </c>
       <c r="C139">
-        <v>12.85579002103692</v>
+        <v>12.85579002087851</v>
       </c>
       <c r="D139">
         <v>5.973459824709302</v>
@@ -7588,11 +7588,11 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L139">
-        <v>0.5020463776504258</v>
+        <v>0.5020463776504248</v>
       </c>
     </row>
     <row r="140">
@@ -7605,10 +7605,10 @@
         <v>185.0184637236004</v>
       </c>
       <c r="C140">
-        <v>13.47098592288879</v>
+        <v>13.47098592274655</v>
       </c>
       <c r="D140">
-        <v>5.569514979413798</v>
+        <v>5.569514979413797</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7640,11 +7640,11 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L140">
-        <v>0.5166870979108023</v>
+        <v>0.5166870979108014</v>
       </c>
     </row>
     <row r="141">
@@ -7657,7 +7657,7 @@
         <v>163.6987318604488</v>
       </c>
       <c r="C141">
-        <v>8.374340466370512</v>
+        <v>8.374340466370446</v>
       </c>
       <c r="D141">
         <v>2.834613810120731</v>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L141">
@@ -7709,7 +7709,7 @@
         <v>177.6914263994109</v>
       </c>
       <c r="C142">
-        <v>23.11886779584965</v>
+        <v>23.1188677955482</v>
       </c>
       <c r="D142">
         <v>8.505596533284189</v>
@@ -7744,11 +7744,11 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L142">
-        <v>0.6137441878891222</v>
+        <v>0.613744187889121</v>
       </c>
     </row>
     <row r="143">
@@ -7761,7 +7761,7 @@
         <v>190.6726345489125</v>
       </c>
       <c r="C143">
-        <v>24.18524845076351</v>
+        <v>24.18524845066661</v>
       </c>
       <c r="D143">
         <v>10.10593488965871</v>
@@ -7796,11 +7796,11 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L143">
-        <v>0.6187800421212162</v>
+        <v>0.6187800421212158</v>
       </c>
     </row>
     <row r="144">
@@ -7813,7 +7813,7 @@
         <v>180.445339602634</v>
       </c>
       <c r="C144">
-        <v>30.51179523040415</v>
+        <v>30.51179523007467</v>
       </c>
       <c r="D144">
         <v>13.74956278433186</v>
@@ -7848,11 +7848,11 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L144">
-        <v>0.6597339400530753</v>
+        <v>0.6597339400530743</v>
       </c>
     </row>
     <row r="145">
@@ -7865,7 +7865,7 @@
         <v>172.9824526383533</v>
       </c>
       <c r="C145">
-        <v>34.38894328299637</v>
+        <v>34.38894328263654</v>
       </c>
       <c r="D145">
         <v>12.85150786588213</v>
@@ -7900,11 +7900,11 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L145">
-        <v>0.6908964221210038</v>
+        <v>0.6908964221210028</v>
       </c>
     </row>
     <row r="146">
@@ -7917,7 +7917,7 @@
         <v>220.5129580158032</v>
       </c>
       <c r="C146">
-        <v>25.59404049110838</v>
+        <v>25.59404049080498</v>
       </c>
       <c r="D146">
         <v>7.663735759650033</v>
@@ -7952,11 +7952,11 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L146">
-        <v>0.608838398338752</v>
+        <v>0.6088383983387509</v>
       </c>
     </row>
     <row r="147">
@@ -7969,7 +7969,7 @@
         <v>80.22215695896922</v>
       </c>
       <c r="C147">
-        <v>17.2365051270088</v>
+        <v>17.23650512696471</v>
       </c>
       <c r="D147">
         <v>9.194541328786288</v>
@@ -8004,11 +8004,11 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L147">
-        <v>0.6486787155905517</v>
+        <v>0.6486787155905515</v>
       </c>
     </row>
     <row r="148">
@@ -8021,7 +8021,7 @@
         <v>169.2254249102859</v>
       </c>
       <c r="C148">
-        <v>18.75424747084511</v>
+        <v>18.75424747063708</v>
       </c>
       <c r="D148">
         <v>7.997677035390159</v>
@@ -8056,11 +8056,11 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L148">
-        <v>0.5837750556681959</v>
+        <v>0.5837750556681949</v>
       </c>
     </row>
     <row r="149">
@@ -8073,7 +8073,7 @@
         <v>199.463417203109</v>
       </c>
       <c r="C149">
-        <v>19.82769718806934</v>
+        <v>19.82769718782131</v>
       </c>
       <c r="D149">
         <v>8.424521234976462</v>
@@ -8108,11 +8108,11 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L149">
-        <v>0.579232618770299</v>
+        <v>0.5792326187702979</v>
       </c>
     </row>
     <row r="150">
@@ -8125,10 +8125,10 @@
         <v>179.0994538810263</v>
       </c>
       <c r="C150">
-        <v>12.52327778558249</v>
+        <v>12.52327778545053</v>
       </c>
       <c r="D150">
-        <v>5.171999870371121</v>
+        <v>5.171999870371122</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -8160,11 +8160,11 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L150">
-        <v>0.5002260769565219</v>
+        <v>0.5002260769565209</v>
       </c>
     </row>
     <row r="151">
@@ -8177,10 +8177,10 @@
         <v>220.7582317206929</v>
       </c>
       <c r="C151">
-        <v>16.22118732725468</v>
+        <v>16.22118732704835</v>
       </c>
       <c r="D151">
-        <v>6.679551497625421</v>
+        <v>6.679551497625423</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -8212,11 +8212,11 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L151">
-        <v>0.5299981290938434</v>
+        <v>0.5299981290938423</v>
       </c>
     </row>
     <row r="152">
@@ -8229,7 +8229,7 @@
         <v>206.0829665789609</v>
       </c>
       <c r="C152">
-        <v>14.4526088192771</v>
+        <v>14.45260881915555</v>
       </c>
       <c r="D152">
         <v>5.982524509388528</v>
@@ -8264,11 +8264,11 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L152">
-        <v>0.5169551224153863</v>
+        <v>0.5169551224153855</v>
       </c>
     </row>
     <row r="153">
@@ -8281,7 +8281,7 @@
         <v>221.7830934538787</v>
       </c>
       <c r="C153">
-        <v>17.3001939462778</v>
+        <v>17.30019394605687</v>
       </c>
       <c r="D153">
         <v>6.983087834094936</v>
@@ -8316,11 +8316,11 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L153">
-        <v>0.544556418980441</v>
+        <v>0.54455641898044</v>
       </c>
     </row>
     <row r="154">
@@ -8333,10 +8333,10 @@
         <v>212.2016913164058</v>
       </c>
       <c r="C154">
-        <v>18.4959226311567</v>
+        <v>18.49592263096081</v>
       </c>
       <c r="D154">
-        <v>6.181623799645223</v>
+        <v>6.181623799645225</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -8368,11 +8368,11 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L154">
-        <v>0.5558112264315971</v>
+        <v>0.5558112264315961</v>
       </c>
     </row>
     <row r="155">
@@ -8385,7 +8385,7 @@
         <v>209.7080571113397</v>
       </c>
       <c r="C155">
-        <v>20.98649102885001</v>
+        <v>20.98649102863938</v>
       </c>
       <c r="D155">
         <v>6.849334008341972</v>
@@ -8420,11 +8420,11 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L155">
-        <v>0.5830626453487987</v>
+        <v>0.5830626453487978</v>
       </c>
     </row>
     <row r="156">
@@ -8437,7 +8437,7 @@
         <v>252.0014713024408</v>
       </c>
       <c r="C156">
-        <v>24.28579765981893</v>
+        <v>24.28579765957192</v>
       </c>
       <c r="D156">
         <v>7.079456577355604</v>
@@ -8472,11 +8472,11 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L156">
-        <v>0.5920767797479551</v>
+        <v>0.5920767797479543</v>
       </c>
     </row>
     <row r="157">
@@ -8489,7 +8489,7 @@
         <v>210.5488954019756</v>
       </c>
       <c r="C157">
-        <v>16.68795300211368</v>
+        <v>16.68795300197251</v>
       </c>
       <c r="D157">
         <v>3.965182091672024</v>
@@ -8524,11 +8524,11 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>AMB</t>
+          <t>Ambient</t>
         </is>
       </c>
       <c r="L157">
-        <v>0.5361682109628163</v>
+        <v>0.5361682109628155</v>
       </c>
     </row>
     <row r="158">
@@ -8541,7 +8541,7 @@
         <v>213.5367110586482</v>
       </c>
       <c r="C158">
-        <v>26.12692626271897</v>
+        <v>26.1269262625418</v>
       </c>
       <c r="D158">
         <v>7.869016817278886</v>
@@ -8576,11 +8576,11 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L158">
-        <v>0.618173111881736</v>
+        <v>0.6181731118817353</v>
       </c>
     </row>
     <row r="159">
@@ -8593,7 +8593,7 @@
         <v>178.0121008006831</v>
       </c>
       <c r="C159">
-        <v>18.08066516299412</v>
+        <v>18.08066516295109</v>
       </c>
       <c r="D159">
         <v>7.87534804310191</v>
@@ -8628,11 +8628,11 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L159">
-        <v>0.5770901676672661</v>
+        <v>0.577090167667266</v>
       </c>
     </row>
     <row r="160">
@@ -8645,7 +8645,7 @@
         <v>189.0176920810743</v>
       </c>
       <c r="C160">
-        <v>18.5654290605902</v>
+        <v>18.56542906043766</v>
       </c>
       <c r="D160">
         <v>7.97253424697464</v>
@@ -8680,11 +8680,11 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L160">
-        <v>0.5698805517986966</v>
+        <v>0.5698805517986959</v>
       </c>
     </row>
     <row r="161">
@@ -8697,10 +8697,10 @@
         <v>208.7830934539425</v>
       </c>
       <c r="C161">
-        <v>16.07227244477328</v>
+        <v>16.0722724446361</v>
       </c>
       <c r="D161">
-        <v>6.30665997914014</v>
+        <v>6.306659979140142</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8732,11 +8732,11 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L161">
-        <v>0.5381881255905954</v>
+        <v>0.5381881255905947</v>
       </c>
     </row>
     <row r="162">
@@ -8749,7 +8749,7 @@
         <v>184.0161344009359</v>
       </c>
       <c r="C162">
-        <v>9.362605129457465</v>
+        <v>9.362605129342422</v>
       </c>
       <c r="D162">
         <v>4.139996115344838</v>
@@ -8784,11 +8784,11 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L162">
-        <v>0.4477048051785047</v>
+        <v>0.4477048051785038</v>
       </c>
     </row>
     <row r="163">
@@ -8801,7 +8801,7 @@
         <v>206.5274977686149</v>
       </c>
       <c r="C163">
-        <v>15.06281610989382</v>
+        <v>15.06281610974827</v>
       </c>
       <c r="D163">
         <v>4.9501031904445</v>
@@ -8836,11 +8836,11 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L163">
-        <v>0.5261941225810653</v>
+        <v>0.5261941225810646</v>
       </c>
     </row>
     <row r="164">
@@ -8853,7 +8853,7 @@
         <v>171.0269116834449</v>
       </c>
       <c r="C164">
-        <v>9.593714519386264</v>
+        <v>9.593714519350488</v>
       </c>
       <c r="D164">
         <v>3.145079692926887</v>
@@ -8888,11 +8888,11 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L164">
-        <v>0.4515817089359622</v>
+        <v>0.4515817089359618</v>
       </c>
     </row>
     <row r="165">
@@ -8905,7 +8905,7 @@
         <v>163.5907890250085</v>
       </c>
       <c r="C165">
-        <v>5.70204838051316</v>
+        <v>5.70204838052963</v>
       </c>
       <c r="D165">
         <v>2.093988890368882</v>
@@ -8940,11 +8940,11 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L165">
-        <v>0.3566479811598848</v>
+        <v>0.3566479811598851</v>
       </c>
     </row>
     <row r="166">
@@ -8957,7 +8957,7 @@
         <v>179.0864139785916</v>
       </c>
       <c r="C166">
-        <v>7.375086646204779</v>
+        <v>7.375086646243496</v>
       </c>
       <c r="D166">
         <v>2.434263481852493</v>
@@ -8992,11 +8992,11 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L166">
-        <v>0.399230680981027</v>
+        <v>0.3992306809810275</v>
       </c>
     </row>
     <row r="167">
@@ -9009,7 +9009,7 @@
         <v>227.3567910898176</v>
       </c>
       <c r="C167">
-        <v>11.33956274432832</v>
+        <v>11.33956274425186</v>
       </c>
       <c r="D167">
         <v>3.875741886633294</v>
@@ -9044,11 +9044,11 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L167">
-        <v>0.4663350149251966</v>
+        <v>0.466335014925196</v>
       </c>
     </row>
     <row r="168">
@@ -9061,7 +9061,7 @@
         <v>184.1735229244313</v>
       </c>
       <c r="C168">
-        <v>20.27130215222638</v>
+        <v>20.27130215201617</v>
       </c>
       <c r="D168">
         <v>8.531391272581361</v>
@@ -9096,11 +9096,11 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L168">
-        <v>0.5885614990830639</v>
+        <v>0.5885614990830629</v>
       </c>
     </row>
     <row r="169">
@@ -9113,10 +9113,10 @@
         <v>170.4227620297252</v>
       </c>
       <c r="C169">
-        <v>19.15087569280035</v>
+        <v>19.1508756927256</v>
       </c>
       <c r="D169">
-        <v>8.031282652399648</v>
+        <v>8.03128265239965</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -9148,11 +9148,11 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>FUT+HW</t>
+          <t>ERCP 8.5 HW</t>
         </is>
       </c>
       <c r="L169">
-        <v>0.5903293407832277</v>
+        <v>0.5903293407832274</v>
       </c>
     </row>
     <row r="170">
@@ -9165,7 +9165,7 @@
         <v>212.1980636305515</v>
       </c>
       <c r="C170">
-        <v>20.54214507506407</v>
+        <v>20.54214507482607</v>
       </c>
       <c r="D170">
         <v>6.253130236041087</v>
@@ -9200,11 +9200,11 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L170">
-        <v>0.5776723851836291</v>
+        <v>0.5776723851836281</v>
       </c>
     </row>
     <row r="171">
@@ -9217,7 +9217,7 @@
         <v>176.2855508158362</v>
       </c>
       <c r="C171">
-        <v>17.95010883759777</v>
+        <v>17.95010883741558</v>
       </c>
       <c r="D171">
         <v>7.853029095081619</v>
@@ -9252,11 +9252,11 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L171">
-        <v>0.5748919147507364</v>
+        <v>0.5748919147507355</v>
       </c>
     </row>
     <row r="172">
@@ -9269,10 +9269,10 @@
         <v>211.841385493246</v>
       </c>
       <c r="C172">
-        <v>23.07910238443825</v>
+        <v>23.07910238424033</v>
       </c>
       <c r="D172">
-        <v>9.70280269450838</v>
+        <v>9.702802694508378</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -9304,11 +9304,11 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L172">
-        <v>0.6026021086127303</v>
+        <v>0.6026021086127296</v>
       </c>
     </row>
     <row r="173">
@@ -9321,7 +9321,7 @@
         <v>192.3057231714534</v>
       </c>
       <c r="C173">
-        <v>19.20593730636766</v>
+        <v>19.20593730618738</v>
       </c>
       <c r="D173">
         <v>8.030473404148101</v>
@@ -9356,11 +9356,11 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L173">
-        <v>0.5705473604685376</v>
+        <v>0.5705473604685367</v>
       </c>
     </row>
     <row r="174">
@@ -9373,7 +9373,7 @@
         <v>220.5099595473214</v>
       </c>
       <c r="C174">
-        <v>15.34066224691955</v>
+        <v>15.34066224672092</v>
       </c>
       <c r="D174">
         <v>6.068081839135237</v>
@@ -9408,11 +9408,11 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L174">
-        <v>0.5209401217669957</v>
+        <v>0.5209401217669946</v>
       </c>
     </row>
     <row r="175">
@@ -9425,7 +9425,7 @@
         <v>220.8200470141305</v>
       </c>
       <c r="C175">
-        <v>14.37317601606281</v>
+        <v>14.37317601587042</v>
       </c>
       <c r="D175">
         <v>6.312952601884346</v>
@@ -9460,11 +9460,11 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L175">
-        <v>0.5105801568849205</v>
+        <v>0.5105801568849194</v>
       </c>
     </row>
     <row r="176">
@@ -9477,7 +9477,7 @@
         <v>160.7751526273157</v>
       </c>
       <c r="C176">
-        <v>12.3837414997097</v>
+        <v>12.38374149958099</v>
       </c>
       <c r="D176">
         <v>5.761433565457502</v>
@@ -9512,11 +9512,11 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L176">
-        <v>0.5072113779991192</v>
+        <v>0.5072113779991182</v>
       </c>
     </row>
     <row r="177">
@@ -9529,7 +9529,7 @@
         <v>185.0121008006077</v>
       </c>
       <c r="C177">
-        <v>12.95061574521182</v>
+        <v>12.95061574510061</v>
       </c>
       <c r="D177">
         <v>4.335539173944342</v>
@@ -9564,11 +9564,11 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L177">
-        <v>0.5055543339715575</v>
+        <v>0.5055543339715568</v>
       </c>
     </row>
     <row r="178">
@@ -9581,7 +9581,7 @@
         <v>191.0324485522606</v>
       </c>
       <c r="C178">
-        <v>15.25705835297425</v>
+        <v>15.25705835291569</v>
       </c>
       <c r="D178">
         <v>5.100635754211196</v>
@@ -9616,11 +9616,11 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L178">
-        <v>0.528939759636234</v>
+        <v>0.5289397596362336</v>
       </c>
     </row>
     <row r="179">
@@ -9633,7 +9633,7 @@
         <v>209.0176920810102</v>
       </c>
       <c r="C179">
-        <v>24.02323785292602</v>
+        <v>24.02323785263823</v>
       </c>
       <c r="D179">
         <v>8.490483199405473</v>
@@ -9668,11 +9668,11 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L179">
-        <v>0.6065484232400677</v>
+        <v>0.6065484232400667</v>
       </c>
     </row>
     <row r="180">
@@ -9685,7 +9685,7 @@
         <v>187.8751668455645</v>
       </c>
       <c r="C180">
-        <v>22.39543179535256</v>
+        <v>22.39543179521703</v>
       </c>
       <c r="D180">
         <v>9.302452724073131</v>
@@ -9720,11 +9720,11 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L180">
-        <v>0.6073522720775342</v>
+        <v>0.6073522720775336</v>
       </c>
     </row>
     <row r="181">
@@ -9737,7 +9737,7 @@
         <v>236.4601660439981</v>
       </c>
       <c r="C181">
-        <v>37.685076416716</v>
+        <v>37.68507641640206</v>
       </c>
       <c r="D181">
         <v>14.72538851497726</v>
@@ -9772,11 +9772,11 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>AMB+HW</t>
+          <t>Ambient HW</t>
         </is>
       </c>
       <c r="L181">
-        <v>0.6766461068467142</v>
+        <v>0.6766461068467134</v>
       </c>
     </row>
     <row r="182">
@@ -9789,7 +9789,7 @@
         <v>215.2949758886853</v>
       </c>
       <c r="C182">
-        <v>29.35502564320582</v>
+        <v>29.35502564288866</v>
       </c>
       <c r="D182">
         <v>9.135083151318673</v>
@@ -9824,11 +9824,11 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L182">
-        <v>0.6359748341772768</v>
+        <v>0.6359748341772758</v>
       </c>
     </row>
     <row r="183">
@@ -9841,7 +9841,7 @@
         <v>196.450276527994</v>
       </c>
       <c r="C183">
-        <v>20.28821708496657</v>
+        <v>20.28821708473454</v>
       </c>
       <c r="D183">
         <v>8.547920603297666</v>
@@ -9876,11 +9876,11 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L183">
-        <v>0.5885397829260767</v>
+        <v>0.5885397829260758</v>
       </c>
     </row>
     <row r="184">
@@ -9893,7 +9893,7 @@
         <v>196.8091263603005</v>
       </c>
       <c r="C184">
-        <v>19.19518851694141</v>
+        <v>19.19518851676797</v>
       </c>
       <c r="D184">
         <v>8.24764802932995</v>
@@ -9928,11 +9928,11 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L184">
-        <v>0.574941262351447</v>
+        <v>0.5749412623514463</v>
       </c>
     </row>
     <row r="185">
@@ -9945,7 +9945,7 @@
         <v>178.6342110288857</v>
       </c>
       <c r="C185">
-        <v>17.42100214798525</v>
+        <v>17.42100214775489</v>
       </c>
       <c r="D185">
         <v>8.079750797431272</v>
@@ -9980,11 +9980,11 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L185">
-        <v>0.5673634646991885</v>
+        <v>0.5673634646991874</v>
       </c>
     </row>
     <row r="186">
@@ -9997,7 +9997,7 @@
         <v>170.9284705067191</v>
       </c>
       <c r="C186">
-        <v>12.02271978270966</v>
+        <v>12.0227197825397</v>
       </c>
       <c r="D186">
         <v>5.265845341306916</v>
@@ -10032,11 +10032,11 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L186">
-        <v>0.4996264719295326</v>
+        <v>0.4996264719295314</v>
       </c>
     </row>
     <row r="187">
@@ -10049,7 +10049,7 @@
         <v>194.5234237393637</v>
       </c>
       <c r="C187">
-        <v>11.52750550700764</v>
+        <v>11.52750550693528</v>
       </c>
       <c r="D187">
         <v>4.26855424391252</v>
@@ -10084,11 +10084,11 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L187">
-        <v>0.4816804747268001</v>
+        <v>0.4816804747267996</v>
       </c>
     </row>
     <row r="188">
@@ -10101,7 +10101,7 @@
         <v>110.4924588131905</v>
       </c>
       <c r="C188">
-        <v>9.451342703042428</v>
+        <v>9.45134270301692</v>
       </c>
       <c r="D188">
         <v>3.546244968109355</v>
@@ -10136,11 +10136,11 @@
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L188">
-        <v>0.4831991012724192</v>
+        <v>0.4831991012724189</v>
       </c>
     </row>
     <row r="189">
@@ -10153,7 +10153,7 @@
         <v>144.5352122267502</v>
       </c>
       <c r="C189">
-        <v>5.379208491839306</v>
+        <v>5.379208491863396</v>
       </c>
       <c r="D189">
         <v>1.947439141857598</v>
@@ -10188,11 +10188,11 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L189">
-        <v>0.3443721556857713</v>
+        <v>0.3443721556857717</v>
       </c>
     </row>
     <row r="190">
@@ -10205,7 +10205,7 @@
         <v>158.7245457906766</v>
       </c>
       <c r="C190">
-        <v>5.481829730050488</v>
+        <v>5.48182973007114</v>
       </c>
       <c r="D190">
         <v>2.000362603775234</v>
@@ -10240,11 +10240,11 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L190">
-        <v>0.3464293256456716</v>
+        <v>0.3464293256456719</v>
       </c>
     </row>
     <row r="191">
@@ -10257,7 +10257,7 @@
         <v>138.8424979014518</v>
       </c>
       <c r="C191">
-        <v>15.83926529635522</v>
+        <v>15.83926529631156</v>
       </c>
       <c r="D191">
         <v>4.435196675329545</v>
@@ -10292,11 +10292,11 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L191">
-        <v>0.5606831368927419</v>
+        <v>0.5606831368927416</v>
       </c>
     </row>
     <row r="192">
@@ -10309,7 +10309,7 @@
         <v>176.5608484698607</v>
       </c>
       <c r="C192">
-        <v>20.46095350587639</v>
+        <v>20.4609535057191</v>
       </c>
       <c r="D192">
         <v>6.712721818856335</v>
@@ -10344,11 +10344,11 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L192">
-        <v>0.5934158345927303</v>
+        <v>0.5934158345927295</v>
       </c>
     </row>
     <row r="193">
@@ -10361,7 +10361,7 @@
         <v>170.6120432661188</v>
       </c>
       <c r="C193">
-        <v>18.004045187275</v>
+        <v>18.00404518714724</v>
       </c>
       <c r="D193">
         <v>7.583791427896795</v>
@@ -10396,11 +10396,11 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>FUT</t>
+          <t>ERCP 8.5</t>
         </is>
       </c>
       <c r="L193">
-        <v>0.5763559352745036</v>
+        <v>0.5763559352745029</v>
       </c>
     </row>
   </sheetData>
